--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.004613277001391</v>
+      </c>
+      <c r="D3">
+        <v>0.987106713903782</v>
+      </c>
+      <c r="E3">
         <v>1.079406994042215</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>0.9963355806642568</v>
+      </c>
+      <c r="G3">
         <v>1.016662507450587</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>1.004068493749714</v>
       </c>
-      <c r="F3">
+      <c r="I3">
+        <v>1.016662507450587</v>
+      </c>
+      <c r="J3">
         <v>1.079406994042215</v>
-      </c>
-      <c r="G3">
-        <v>0.987106713903782</v>
-      </c>
-      <c r="H3">
-        <v>1.004613277001391</v>
-      </c>
-      <c r="I3">
-        <v>0.9963355806642568</v>
-      </c>
-      <c r="J3">
-        <v>1.016662507450587</v>
       </c>
       <c r="K3">
         <v>1.079406994042215</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.010683176058719</v>
+      </c>
+      <c r="D4">
+        <v>0.9920942553586195</v>
+      </c>
+      <c r="E4">
         <v>1.160371859739484</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.002736218995435</v>
+      </c>
+      <c r="G4">
         <v>1.054270915427416</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.005976965117355</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>1.054270915427416</v>
+      </c>
+      <c r="J4">
         <v>1.160371859739484</v>
-      </c>
-      <c r="G4">
-        <v>0.9920942553586195</v>
-      </c>
-      <c r="H4">
-        <v>1.010683176058719</v>
-      </c>
-      <c r="I4">
-        <v>1.002736218995435</v>
-      </c>
-      <c r="J4">
-        <v>1.054270915427416</v>
       </c>
       <c r="K4">
         <v>1.160371859739484</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.049181017871849</v>
+      </c>
+      <c r="D5">
+        <v>1.060653894628253</v>
+      </c>
+      <c r="E5">
         <v>1.402741545515485</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.068856539843524</v>
+      </c>
+      <c r="G5">
         <v>1.112170160501387</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>0.9698324934895389</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>1.112170160501387</v>
+      </c>
+      <c r="J5">
         <v>1.402741545515485</v>
-      </c>
-      <c r="G5">
-        <v>1.060653894628253</v>
-      </c>
-      <c r="H5">
-        <v>1.049181017871849</v>
-      </c>
-      <c r="I5">
-        <v>1.068856539843524</v>
-      </c>
-      <c r="J5">
-        <v>1.112170160501387</v>
       </c>
       <c r="K5">
         <v>1.402741545515485</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.107888383286157</v>
+      </c>
+      <c r="D6">
+        <v>1.029615087278885</v>
+      </c>
+      <c r="E6">
         <v>1.966025222229333</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.9427681915479699</v>
+      </c>
+      <c r="G6">
         <v>1.609971651226886</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>1.232593748626794</v>
       </c>
-      <c r="F6">
+      <c r="I6">
+        <v>1.609971651226886</v>
+      </c>
+      <c r="J6">
         <v>1.966025222229333</v>
-      </c>
-      <c r="G6">
-        <v>1.029615087278885</v>
-      </c>
-      <c r="H6">
-        <v>1.107888383286156</v>
-      </c>
-      <c r="I6">
-        <v>0.9427681915479699</v>
-      </c>
-      <c r="J6">
-        <v>1.609971651226886</v>
       </c>
       <c r="K6">
         <v>1.966025222229333</v>
@@ -862,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003294710403214</v>
+        <v>0.9984820781560051</v>
       </c>
       <c r="D7">
-        <v>1.007691357590837</v>
+        <v>1.006051324090683</v>
       </c>
       <c r="E7">
+        <v>1.003294710403213</v>
+      </c>
+      <c r="F7">
+        <v>0.9987635887925134</v>
+      </c>
+      <c r="G7">
+        <v>1.007691357590838</v>
+      </c>
+      <c r="H7">
         <v>1.001764930746468</v>
       </c>
-      <c r="F7">
-        <v>1.003294710403214</v>
-      </c>
-      <c r="G7">
-        <v>1.006051324090682</v>
-      </c>
-      <c r="H7">
-        <v>0.9984820781560049</v>
-      </c>
       <c r="I7">
-        <v>0.998763588792514</v>
+        <v>1.007691357590838</v>
       </c>
       <c r="J7">
-        <v>1.007691357590837</v>
+        <v>1.003294710403213</v>
       </c>
       <c r="K7">
-        <v>1.003294710403214</v>
+        <v>1.003294710403213</v>
       </c>
       <c r="L7">
         <v>1.001764930746468</v>
@@ -901,16 +913,16 @@
         <v>1.002646122164437</v>
       </c>
       <c r="P7">
-        <v>1.004250332913507</v>
+        <v>1.004250332913506</v>
       </c>
       <c r="Q7">
-        <v>1.004250332913507</v>
+        <v>1.004250332913506</v>
       </c>
       <c r="R7">
-        <v>1.004011427285934</v>
+        <v>1.004011427285933</v>
       </c>
       <c r="S7">
-        <v>1.004011427285934</v>
+        <v>1.004011427285933</v>
       </c>
       <c r="T7">
         <v>1.002674664963287</v>
@@ -924,49 +936,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.015406698916307</v>
+        <v>0.9978898306920601</v>
       </c>
       <c r="D8">
-        <v>1.015882171837374</v>
+        <v>1.013111075851285</v>
       </c>
       <c r="E8">
+        <v>1.015406698916306</v>
+      </c>
+      <c r="F8">
+        <v>0.997080579608291</v>
+      </c>
+      <c r="G8">
+        <v>1.015882171837377</v>
+      </c>
+      <c r="H8">
         <v>1.003268334949201</v>
       </c>
-      <c r="F8">
-        <v>1.015406698916307</v>
-      </c>
-      <c r="G8">
-        <v>1.013111075851283</v>
-      </c>
-      <c r="H8">
-        <v>0.9978898306920607</v>
-      </c>
       <c r="I8">
-        <v>0.9970805796082911</v>
+        <v>1.015882171837377</v>
       </c>
       <c r="J8">
-        <v>1.015882171837374</v>
+        <v>1.015406698916306</v>
       </c>
       <c r="K8">
-        <v>1.015406698916307</v>
+        <v>1.015406698916306</v>
       </c>
       <c r="L8">
         <v>1.003268334949201</v>
       </c>
       <c r="M8">
-        <v>1.009575253393288</v>
+        <v>1.009575253393289</v>
       </c>
       <c r="N8">
-        <v>1.009575253393288</v>
+        <v>1.009575253393289</v>
       </c>
       <c r="O8">
         <v>1.005680112492879</v>
       </c>
       <c r="P8">
-        <v>1.011519068567627</v>
+        <v>1.011519068567628</v>
       </c>
       <c r="Q8">
-        <v>1.011519068567627</v>
+        <v>1.011519068567628</v>
       </c>
       <c r="R8">
         <v>1.012490976154797</v>
@@ -975,7 +987,7 @@
         <v>1.012490976154797</v>
       </c>
       <c r="T8">
-        <v>1.007106448642419</v>
+        <v>1.00710644864242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9974358040404515</v>
+      </c>
+      <c r="D9">
+        <v>1.015861432873706</v>
+      </c>
+      <c r="E9">
         <v>1.061688897953421</v>
       </c>
-      <c r="D9">
-        <v>1.027549062646087</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
+        <v>0.9934577362922861</v>
+      </c>
+      <c r="G9">
+        <v>1.027549062646088</v>
+      </c>
+      <c r="H9">
         <v>1.012072610506374</v>
       </c>
-      <c r="F9">
+      <c r="I9">
+        <v>1.027549062646088</v>
+      </c>
+      <c r="J9">
         <v>1.061688897953421</v>
-      </c>
-      <c r="G9">
-        <v>1.015861432873706</v>
-      </c>
-      <c r="H9">
-        <v>0.9974358040404516</v>
-      </c>
-      <c r="I9">
-        <v>0.9934577362922861</v>
-      </c>
-      <c r="J9">
-        <v>1.027549062646087</v>
       </c>
       <c r="K9">
         <v>1.061688897953421</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9928429040132236</v>
+      </c>
+      <c r="D10">
+        <v>1.042009453689955</v>
+      </c>
+      <c r="E10">
         <v>1.077200598532416</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>0.997696575731181</v>
+      </c>
+      <c r="G10">
         <v>1.041943231004773</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.012074992291336</v>
       </c>
-      <c r="F10">
+      <c r="I10">
+        <v>1.041943231004773</v>
+      </c>
+      <c r="J10">
         <v>1.077200598532416</v>
-      </c>
-      <c r="G10">
-        <v>1.042009453689955</v>
-      </c>
-      <c r="H10">
-        <v>0.9928429040132236</v>
-      </c>
-      <c r="I10">
-        <v>0.997696575731181</v>
-      </c>
-      <c r="J10">
-        <v>1.041943231004773</v>
       </c>
       <c r="K10">
         <v>1.077200598532416</v>
@@ -1110,34 +1122,34 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9857354605919343</v>
+      </c>
+      <c r="D11">
+        <v>1.062064750275661</v>
+      </c>
+      <c r="E11">
         <v>1.270270027983209</v>
       </c>
-      <c r="D11">
-        <v>1.050035266139394</v>
-      </c>
-      <c r="E11">
-        <v>1.036048853841804</v>
-      </c>
       <c r="F11">
+        <v>0.9800402034394102</v>
+      </c>
+      <c r="G11">
+        <v>1.050035266139393</v>
+      </c>
+      <c r="H11">
+        <v>1.036048853841805</v>
+      </c>
+      <c r="I11">
+        <v>1.050035266139393</v>
+      </c>
+      <c r="J11">
         <v>1.270270027983209</v>
-      </c>
-      <c r="G11">
-        <v>1.062064750275661</v>
-      </c>
-      <c r="H11">
-        <v>0.9857354605919341</v>
-      </c>
-      <c r="I11">
-        <v>0.9800402034394102</v>
-      </c>
-      <c r="J11">
-        <v>1.050035266139394</v>
       </c>
       <c r="K11">
         <v>1.270270027983209</v>
       </c>
       <c r="L11">
-        <v>1.036048853841804</v>
+        <v>1.036048853841805</v>
       </c>
       <c r="M11">
         <v>1.043042059990599</v>
@@ -1152,7 +1164,7 @@
         <v>1.118784715988135</v>
       </c>
       <c r="Q11">
-        <v>1.118784715988136</v>
+        <v>1.118784715988135</v>
       </c>
       <c r="R11">
         <v>1.156656043986904</v>
@@ -1172,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.294687972337101</v>
+      </c>
+      <c r="D12">
+        <v>0.01878657451929507</v>
+      </c>
+      <c r="E12">
         <v>1.637772696181906</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>1.224471727757228</v>
+      </c>
+      <c r="G12">
         <v>0.07408384327928993</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>1.031808577725423</v>
       </c>
-      <c r="F12">
+      <c r="I12">
+        <v>0.07408384327928993</v>
+      </c>
+      <c r="J12">
         <v>1.637772696181906</v>
-      </c>
-      <c r="G12">
-        <v>0.01878657451929509</v>
-      </c>
-      <c r="H12">
-        <v>1.294687972337102</v>
-      </c>
-      <c r="I12">
-        <v>1.224471727757228</v>
-      </c>
-      <c r="J12">
-        <v>0.07408384327928993</v>
       </c>
       <c r="K12">
         <v>1.637772696181906</v>
@@ -1202,25 +1214,25 @@
         <v>1.031808577725423</v>
       </c>
       <c r="M12">
-        <v>0.5529462105023565</v>
+        <v>0.5529462105023566</v>
       </c>
       <c r="N12">
-        <v>0.5529462105023565</v>
+        <v>0.5529462105023566</v>
       </c>
       <c r="O12">
-        <v>0.8001934644472716</v>
+        <v>0.8001934644472715</v>
       </c>
       <c r="P12">
-        <v>0.9145550390622064</v>
+        <v>0.9145550390622065</v>
       </c>
       <c r="Q12">
-        <v>0.9145550390622064</v>
+        <v>0.9145550390622065</v>
       </c>
       <c r="R12">
-        <v>1.095359453342131</v>
+        <v>1.095359453342132</v>
       </c>
       <c r="S12">
-        <v>1.095359453342131</v>
+        <v>1.095359453342132</v>
       </c>
       <c r="T12">
         <v>0.8802685653000406</v>
@@ -1234,40 +1246,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9591417196820485</v>
+        <v>0.7458314991221103</v>
       </c>
       <c r="D13">
+        <v>1.439684395819204</v>
+      </c>
+      <c r="E13">
+        <v>0.9591417196820489</v>
+      </c>
+      <c r="F13">
+        <v>0.9024888776461023</v>
+      </c>
+      <c r="G13">
         <v>2.033277462835631</v>
       </c>
-      <c r="E13">
-        <v>0.9142597314500862</v>
-      </c>
-      <c r="F13">
-        <v>0.9591417196820485</v>
-      </c>
-      <c r="G13">
-        <v>1.439684395819204</v>
-      </c>
       <c r="H13">
-        <v>0.7458314991221106</v>
+        <v>0.9142597314500865</v>
       </c>
       <c r="I13">
-        <v>0.9024888776461023</v>
+        <v>2.033277462835631</v>
       </c>
       <c r="J13">
-        <v>2.033277462835631</v>
+        <v>0.9591417196820489</v>
       </c>
       <c r="K13">
-        <v>0.9591417196820485</v>
+        <v>0.9591417196820489</v>
       </c>
       <c r="L13">
-        <v>0.9142597314500862</v>
+        <v>0.9142597314500865</v>
       </c>
       <c r="M13">
-        <v>1.473768597142858</v>
+        <v>1.473768597142859</v>
       </c>
       <c r="N13">
-        <v>1.473768597142858</v>
+        <v>1.473768597142859</v>
       </c>
       <c r="O13">
         <v>1.231122897802609</v>
@@ -1279,10 +1291,10 @@
         <v>1.302226304655922</v>
       </c>
       <c r="R13">
-        <v>1.216455158412453</v>
+        <v>1.216455158412454</v>
       </c>
       <c r="S13">
-        <v>1.216455158412453</v>
+        <v>1.216455158412454</v>
       </c>
       <c r="T13">
         <v>1.165780614425864</v>
@@ -1296,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4575240688298541</v>
+        <v>1.40161374224752</v>
       </c>
       <c r="D14">
+        <v>1.047283324980464</v>
+      </c>
+      <c r="E14">
+        <v>0.4575240688298542</v>
+      </c>
+      <c r="F14">
+        <v>1.002912250887597</v>
+      </c>
+      <c r="G14">
         <v>1.67335477920264</v>
       </c>
-      <c r="E14">
-        <v>0.7298618612238882</v>
-      </c>
-      <c r="F14">
-        <v>0.4575240688298541</v>
-      </c>
-      <c r="G14">
-        <v>1.047283324980464</v>
-      </c>
       <c r="H14">
-        <v>1.40161374224752</v>
+        <v>0.7298618612238877</v>
       </c>
       <c r="I14">
-        <v>1.002912250887597</v>
+        <v>1.67335477920264</v>
       </c>
       <c r="J14">
-        <v>1.67335477920264</v>
+        <v>0.4575240688298542</v>
       </c>
       <c r="K14">
-        <v>0.4575240688298541</v>
+        <v>0.4575240688298542</v>
       </c>
       <c r="L14">
-        <v>0.7298618612238882</v>
+        <v>0.7298618612238877</v>
       </c>
       <c r="M14">
         <v>1.201608320213264</v>
@@ -1335,16 +1347,16 @@
         <v>1.268276794224683</v>
       </c>
       <c r="P14">
-        <v>0.9535802364187943</v>
+        <v>0.9535802364187941</v>
       </c>
       <c r="Q14">
-        <v>0.9535802364187943</v>
+        <v>0.9535802364187941</v>
       </c>
       <c r="R14">
-        <v>0.8295661945215592</v>
+        <v>0.8295661945215591</v>
       </c>
       <c r="S14">
-        <v>0.8295661945215592</v>
+        <v>0.8295661945215591</v>
       </c>
       <c r="T14">
         <v>1.052091671228661</v>
@@ -1358,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.152505170403554</v>
+      </c>
+      <c r="D15">
+        <v>0.583109778582349</v>
+      </c>
+      <c r="E15">
         <v>0.7839152245950087</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>0.9405966316423949</v>
+      </c>
+      <c r="G15">
         <v>0.3557094499442442</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.8992704960297836</v>
       </c>
-      <c r="F15">
+      <c r="I15">
+        <v>0.3557094499442442</v>
+      </c>
+      <c r="J15">
         <v>0.7839152245950087</v>
-      </c>
-      <c r="G15">
-        <v>0.5831097785823491</v>
-      </c>
-      <c r="H15">
-        <v>1.152505170403554</v>
-      </c>
-      <c r="I15">
-        <v>0.9405966316423949</v>
-      </c>
-      <c r="J15">
-        <v>0.3557094499442442</v>
       </c>
       <c r="K15">
         <v>0.7839152245950087</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9890032419192822</v>
+        <v>1.09079039170904</v>
       </c>
       <c r="D16">
-        <v>1.00156137611709</v>
+        <v>0.7513009932036921</v>
       </c>
       <c r="E16">
-        <v>1.006238896110204</v>
+        <v>2.273643218363925</v>
       </c>
       <c r="F16">
-        <v>0.9890032419192822</v>
+        <v>0.9996070896966706</v>
       </c>
       <c r="G16">
-        <v>1.010291171767606</v>
+        <v>1.291434026066856</v>
       </c>
       <c r="H16">
-        <v>0.9995377376482744</v>
+        <v>0.9930068077890133</v>
       </c>
       <c r="I16">
-        <v>0.9988834546969119</v>
+        <v>1.291434026066856</v>
       </c>
       <c r="J16">
-        <v>1.00156137611709</v>
+        <v>2.273643218363925</v>
       </c>
       <c r="K16">
-        <v>0.9890032419192822</v>
+        <v>2.273643218363925</v>
       </c>
       <c r="L16">
-        <v>1.006238896110204</v>
+        <v>0.9930068077890133</v>
       </c>
       <c r="M16">
-        <v>1.003900136113647</v>
+        <v>1.142220416927934</v>
       </c>
       <c r="N16">
-        <v>1.003900136113647</v>
+        <v>1.142220416927934</v>
       </c>
       <c r="O16">
-        <v>1.002446003291856</v>
+        <v>1.125077075188303</v>
       </c>
       <c r="P16">
-        <v>0.9989345047155253</v>
+        <v>1.519361350739931</v>
       </c>
       <c r="Q16">
-        <v>0.9989345047155253</v>
+        <v>1.519361350739931</v>
       </c>
       <c r="R16">
-        <v>0.9964516890164645</v>
+        <v>1.707931817645929</v>
       </c>
       <c r="S16">
-        <v>0.9964516890164645</v>
+        <v>1.707931817645929</v>
       </c>
       <c r="T16">
-        <v>1.000919313043228</v>
+        <v>1.233297087804866</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.025841880379658</v>
+        <v>1.047576710622516</v>
       </c>
       <c r="D17">
-        <v>1.014946977590071</v>
+        <v>0.9543421509188408</v>
       </c>
       <c r="E17">
-        <v>0.993387937516609</v>
+        <v>1.814201795604204</v>
       </c>
       <c r="F17">
-        <v>1.025841880379658</v>
+        <v>0.9800175723789271</v>
       </c>
       <c r="G17">
-        <v>0.9959415265729487</v>
+        <v>1.348709146332659</v>
       </c>
       <c r="H17">
-        <v>0.9987654467365579</v>
+        <v>1.032060956432391</v>
       </c>
       <c r="I17">
-        <v>1.001369418336008</v>
+        <v>1.348709146332659</v>
       </c>
       <c r="J17">
-        <v>1.014946977590071</v>
+        <v>1.814201795604204</v>
       </c>
       <c r="K17">
-        <v>1.025841880379658</v>
+        <v>1.814201795604204</v>
       </c>
       <c r="L17">
-        <v>0.993387937516609</v>
+        <v>1.032060956432391</v>
       </c>
       <c r="M17">
-        <v>1.00416745755334</v>
+        <v>1.190385051382525</v>
       </c>
       <c r="N17">
-        <v>1.00416745755334</v>
+        <v>1.190385051382525</v>
       </c>
       <c r="O17">
-        <v>1.002366787281079</v>
+        <v>1.142782271129189</v>
       </c>
       <c r="P17">
-        <v>1.011392265162113</v>
+        <v>1.398323966123085</v>
       </c>
       <c r="Q17">
-        <v>1.011392265162113</v>
+        <v>1.398323966123085</v>
       </c>
       <c r="R17">
-        <v>1.015004668966499</v>
+        <v>1.502293423493365</v>
       </c>
       <c r="S17">
-        <v>1.015004668966499</v>
+        <v>1.502293423493365</v>
       </c>
       <c r="T17">
-        <v>1.005042197855309</v>
+        <v>1.196151388714923</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.167294561285602</v>
+        <v>0.9573262242637843</v>
       </c>
       <c r="D18">
-        <v>0.9960134456364863</v>
+        <v>1.358598600226537</v>
       </c>
       <c r="E18">
-        <v>0.9906176350870366</v>
+        <v>0.9296243199580099</v>
       </c>
       <c r="F18">
-        <v>1.167294561285602</v>
+        <v>0.9448513850023761</v>
       </c>
       <c r="G18">
-        <v>1.011559881427443</v>
+        <v>1.445992440932048</v>
       </c>
       <c r="H18">
-        <v>0.9919991797861716</v>
+        <v>1.110917709408289</v>
       </c>
       <c r="I18">
-        <v>1.010045987779416</v>
+        <v>1.445992440932048</v>
       </c>
       <c r="J18">
-        <v>0.9960134456364863</v>
+        <v>0.9296243199580099</v>
       </c>
       <c r="K18">
-        <v>1.167294561285602</v>
+        <v>0.9296243199580099</v>
       </c>
       <c r="L18">
-        <v>0.9906176350870366</v>
+        <v>1.110917709408289</v>
       </c>
       <c r="M18">
-        <v>0.9933155403617615</v>
+        <v>1.278455075170169</v>
       </c>
       <c r="N18">
-        <v>0.9933155403617615</v>
+        <v>1.278455075170169</v>
       </c>
       <c r="O18">
-        <v>0.9928767535032316</v>
+        <v>1.17141212486804</v>
       </c>
       <c r="P18">
-        <v>1.051308547336375</v>
+        <v>1.162178156766116</v>
       </c>
       <c r="Q18">
-        <v>1.051308547336375</v>
+        <v>1.162178156766116</v>
       </c>
       <c r="R18">
-        <v>1.080305050823682</v>
+        <v>1.104039697564089</v>
       </c>
       <c r="S18">
-        <v>1.080305050823682</v>
+        <v>1.104039697564089</v>
       </c>
       <c r="T18">
-        <v>1.027921781833693</v>
+        <v>1.124551779965174</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9330869611394174</v>
+      </c>
+      <c r="D19">
+        <v>1.581040785684955</v>
+      </c>
+      <c r="E19">
+        <v>0.8360852094661078</v>
+      </c>
+      <c r="F19">
+        <v>0.9389382222568182</v>
+      </c>
+      <c r="G19">
+        <v>1.682642264230859</v>
+      </c>
+      <c r="H19">
+        <v>1.159227498276329</v>
+      </c>
+      <c r="I19">
+        <v>1.682642264230859</v>
+      </c>
+      <c r="J19">
+        <v>0.8360852094661078</v>
+      </c>
+      <c r="K19">
+        <v>0.8360852094661078</v>
+      </c>
+      <c r="L19">
+        <v>1.159227498276329</v>
+      </c>
+      <c r="M19">
+        <v>1.420934881253594</v>
+      </c>
+      <c r="N19">
+        <v>1.420934881253594</v>
+      </c>
+      <c r="O19">
+        <v>1.258318907882202</v>
+      </c>
+      <c r="P19">
+        <v>1.225984990657765</v>
+      </c>
+      <c r="Q19">
+        <v>1.225984990657765</v>
+      </c>
+      <c r="R19">
+        <v>1.128510045359851</v>
+      </c>
+      <c r="S19">
+        <v>1.128510045359851</v>
+      </c>
+      <c r="T19">
+        <v>1.188503490175748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9995377376482745</v>
+      </c>
+      <c r="D20">
+        <v>1.010291171767606</v>
+      </c>
+      <c r="E20">
+        <v>0.9890032419192826</v>
+      </c>
+      <c r="F20">
+        <v>0.9988834546969116</v>
+      </c>
+      <c r="G20">
+        <v>1.001561376117089</v>
+      </c>
+      <c r="H20">
+        <v>1.006238896110204</v>
+      </c>
+      <c r="I20">
+        <v>1.001561376117089</v>
+      </c>
+      <c r="J20">
+        <v>0.9890032419192826</v>
+      </c>
+      <c r="K20">
+        <v>0.9890032419192826</v>
+      </c>
+      <c r="L20">
+        <v>1.006238896110204</v>
+      </c>
+      <c r="M20">
+        <v>1.003900136113646</v>
+      </c>
+      <c r="N20">
+        <v>1.003900136113646</v>
+      </c>
+      <c r="O20">
+        <v>1.002446003291856</v>
+      </c>
+      <c r="P20">
+        <v>0.9989345047155251</v>
+      </c>
+      <c r="Q20">
+        <v>0.998934504715525</v>
+      </c>
+      <c r="R20">
+        <v>0.9964516890164644</v>
+      </c>
+      <c r="S20">
+        <v>0.9964516890164644</v>
+      </c>
+      <c r="T20">
+        <v>1.000919313043228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9987654467365579</v>
+      </c>
+      <c r="D21">
+        <v>0.9959415265729484</v>
+      </c>
+      <c r="E21">
+        <v>1.025841880379657</v>
+      </c>
+      <c r="F21">
+        <v>1.001369418336008</v>
+      </c>
+      <c r="G21">
+        <v>1.014946977590071</v>
+      </c>
+      <c r="H21">
+        <v>0.9933879375166086</v>
+      </c>
+      <c r="I21">
+        <v>1.014946977590071</v>
+      </c>
+      <c r="J21">
+        <v>1.025841880379657</v>
+      </c>
+      <c r="K21">
+        <v>1.025841880379657</v>
+      </c>
+      <c r="L21">
+        <v>0.9933879375166086</v>
+      </c>
+      <c r="M21">
+        <v>1.00416745755334</v>
+      </c>
+      <c r="N21">
+        <v>1.00416745755334</v>
+      </c>
+      <c r="O21">
+        <v>1.002366787281079</v>
+      </c>
+      <c r="P21">
+        <v>1.011392265162112</v>
+      </c>
+      <c r="Q21">
+        <v>1.011392265162112</v>
+      </c>
+      <c r="R21">
+        <v>1.015004668966498</v>
+      </c>
+      <c r="S21">
+        <v>1.015004668966498</v>
+      </c>
+      <c r="T21">
+        <v>1.005042197855308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9919991797861717</v>
+      </c>
+      <c r="D22">
+        <v>1.011559881427442</v>
+      </c>
+      <c r="E22">
+        <v>1.167294561285604</v>
+      </c>
+      <c r="F22">
+        <v>1.010045987779417</v>
+      </c>
+      <c r="G22">
+        <v>0.9960134456364863</v>
+      </c>
+      <c r="H22">
+        <v>0.9906176350870359</v>
+      </c>
+      <c r="I22">
+        <v>0.9960134456364863</v>
+      </c>
+      <c r="J22">
+        <v>1.167294561285604</v>
+      </c>
+      <c r="K22">
+        <v>1.167294561285604</v>
+      </c>
+      <c r="L22">
+        <v>0.9906176350870359</v>
+      </c>
+      <c r="M22">
+        <v>0.9933155403617611</v>
+      </c>
+      <c r="N22">
+        <v>0.9933155403617611</v>
+      </c>
+      <c r="O22">
+        <v>0.9928767535032312</v>
+      </c>
+      <c r="P22">
+        <v>1.051308547336375</v>
+      </c>
+      <c r="Q22">
+        <v>1.051308547336375</v>
+      </c>
+      <c r="R22">
+        <v>1.080305050823682</v>
+      </c>
+      <c r="S22">
+        <v>1.080305050823682</v>
+      </c>
+      <c r="T22">
+        <v>1.027921781833693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.98432177168405</v>
+      </c>
+      <c r="D23">
+        <v>1.137110260701301</v>
+      </c>
+      <c r="E23">
         <v>0.931030321216642</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.041606665407401</v>
+      </c>
+      <c r="G23">
         <v>1.10889783386282</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>1.0005705260398</v>
       </c>
-      <c r="F19">
+      <c r="I23">
+        <v>1.10889783386282</v>
+      </c>
+      <c r="J23">
         <v>0.931030321216642</v>
       </c>
-      <c r="G19">
-        <v>1.137110260701301</v>
-      </c>
-      <c r="H19">
-        <v>0.98432177168405</v>
-      </c>
-      <c r="I19">
-        <v>1.041606665407401</v>
-      </c>
-      <c r="J19">
-        <v>1.10889783386282</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.931030321216642</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.0005705260398</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.05473417995131</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.05473417995131</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.031263377195557</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.013499560373087</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.013499560373087</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9928822505839761</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9928822505839761</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.033922896485336</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.004613277001391</v>
+        <v>0.9351824029673559</v>
       </c>
       <c r="D3">
-        <v>0.987106713903782</v>
+        <v>1.500574093186817</v>
       </c>
       <c r="E3">
-        <v>1.079406994042215</v>
+        <v>0.9217747106555272</v>
       </c>
       <c r="F3">
-        <v>0.9963355806642568</v>
+        <v>0.9271478089881818</v>
       </c>
       <c r="G3">
-        <v>1.016662507450587</v>
+        <v>1.658487387020584</v>
       </c>
       <c r="H3">
-        <v>1.004068493749714</v>
+        <v>1.156941638928952</v>
       </c>
       <c r="I3">
-        <v>1.016662507450587</v>
+        <v>1.658487387020584</v>
       </c>
       <c r="J3">
-        <v>1.079406994042215</v>
+        <v>0.9217747106555272</v>
       </c>
       <c r="K3">
-        <v>1.079406994042215</v>
+        <v>0.9217747106555272</v>
       </c>
       <c r="L3">
-        <v>1.004068493749714</v>
+        <v>1.156941638928952</v>
       </c>
       <c r="M3">
-        <v>1.01036550060015</v>
+        <v>1.407714512974767</v>
       </c>
       <c r="N3">
-        <v>1.01036550060015</v>
+        <v>1.407714512974767</v>
       </c>
       <c r="O3">
-        <v>1.008448092733897</v>
+        <v>1.250203809638964</v>
       </c>
       <c r="P3">
-        <v>1.033379331747505</v>
+        <v>1.245734578868354</v>
       </c>
       <c r="Q3">
-        <v>1.033379331747505</v>
+        <v>1.245734578868354</v>
       </c>
       <c r="R3">
-        <v>1.044886247321183</v>
+        <v>1.164744611815147</v>
       </c>
       <c r="S3">
-        <v>1.044886247321183</v>
+        <v>1.164744611815147</v>
       </c>
       <c r="T3">
-        <v>1.014698927801991</v>
+        <v>1.183351340291236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.010683176058719</v>
+        <v>0.9494954328061123</v>
       </c>
       <c r="D4">
-        <v>0.9920942553586195</v>
+        <v>1.424206867426626</v>
       </c>
       <c r="E4">
-        <v>1.160371859739484</v>
+        <v>0.8908623881988407</v>
       </c>
       <c r="F4">
-        <v>1.002736218995435</v>
+        <v>0.9355328347484136</v>
       </c>
       <c r="G4">
-        <v>1.054270915427416</v>
+        <v>1.550827013422066</v>
       </c>
       <c r="H4">
-        <v>1.005976965117355</v>
+        <v>1.13188314053058</v>
       </c>
       <c r="I4">
-        <v>1.054270915427416</v>
+        <v>1.550827013422066</v>
       </c>
       <c r="J4">
-        <v>1.160371859739484</v>
+        <v>0.8908623881988407</v>
       </c>
       <c r="K4">
-        <v>1.160371859739484</v>
+        <v>0.8908623881988407</v>
       </c>
       <c r="L4">
-        <v>1.005976965117355</v>
+        <v>1.13188314053058</v>
       </c>
       <c r="M4">
-        <v>1.030123940272385</v>
+        <v>1.341355076976323</v>
       </c>
       <c r="N4">
-        <v>1.030123940272385</v>
+        <v>1.341355076976323</v>
       </c>
       <c r="O4">
-        <v>1.023643685534497</v>
+        <v>1.210735195586253</v>
       </c>
       <c r="P4">
-        <v>1.073539913428085</v>
+        <v>1.191190847383829</v>
       </c>
       <c r="Q4">
-        <v>1.073539913428085</v>
+        <v>1.191190847383829</v>
       </c>
       <c r="R4">
-        <v>1.095247900005935</v>
+        <v>1.116108732587582</v>
       </c>
       <c r="S4">
-        <v>1.095247900005935</v>
+        <v>1.116108732587582</v>
       </c>
       <c r="T4">
-        <v>1.037688898449505</v>
+        <v>1.14713461285544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.049181017871849</v>
+        <v>0.9087181834945017</v>
       </c>
       <c r="D5">
-        <v>1.060653894628253</v>
+        <v>1.689804849803631</v>
       </c>
       <c r="E5">
-        <v>1.402741545515485</v>
+        <v>1.012171387129003</v>
       </c>
       <c r="F5">
-        <v>1.068856539843524</v>
+        <v>0.9220552400043123</v>
       </c>
       <c r="G5">
-        <v>1.112170160501387</v>
+        <v>1.875021925415659</v>
       </c>
       <c r="H5">
-        <v>0.9698324934895389</v>
+        <v>1.226582125158774</v>
       </c>
       <c r="I5">
-        <v>1.112170160501387</v>
+        <v>1.875021925415659</v>
       </c>
       <c r="J5">
-        <v>1.402741545515485</v>
+        <v>1.012171387129003</v>
       </c>
       <c r="K5">
-        <v>1.402741545515485</v>
+        <v>1.012171387129003</v>
       </c>
       <c r="L5">
-        <v>0.9698324934895389</v>
+        <v>1.226582125158774</v>
       </c>
       <c r="M5">
-        <v>1.041001326995463</v>
+        <v>1.550802025287217</v>
       </c>
       <c r="N5">
-        <v>1.041001326995463</v>
+        <v>1.550802025287217</v>
       </c>
       <c r="O5">
-        <v>1.043727890620925</v>
+        <v>1.336774078022978</v>
       </c>
       <c r="P5">
-        <v>1.16158139983547</v>
+        <v>1.371258479234479</v>
       </c>
       <c r="Q5">
-        <v>1.16158139983547</v>
+        <v>1.371258479234479</v>
       </c>
       <c r="R5">
-        <v>1.221871436255474</v>
+        <v>1.28148670620811</v>
       </c>
       <c r="S5">
-        <v>1.221871436255474</v>
+        <v>1.28148670620811</v>
       </c>
       <c r="T5">
-        <v>1.110572608641673</v>
+        <v>1.272392285167647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.107888383286157</v>
+        <v>0.9794173242131817</v>
       </c>
       <c r="D6">
-        <v>1.029615087278885</v>
+        <v>1.981943403782732</v>
       </c>
       <c r="E6">
-        <v>1.966025222229333</v>
+        <v>1.433688241526818</v>
       </c>
       <c r="F6">
-        <v>0.9427681915479699</v>
+        <v>0.8400091649522733</v>
       </c>
       <c r="G6">
-        <v>1.609971651226886</v>
+        <v>2.403818327760417</v>
       </c>
       <c r="H6">
-        <v>1.232593748626794</v>
+        <v>1.347231804203977</v>
       </c>
       <c r="I6">
-        <v>1.609971651226886</v>
+        <v>2.403818327760417</v>
       </c>
       <c r="J6">
-        <v>1.966025222229333</v>
+        <v>1.433688241526818</v>
       </c>
       <c r="K6">
-        <v>1.966025222229333</v>
+        <v>1.433688241526818</v>
       </c>
       <c r="L6">
-        <v>1.232593748626794</v>
+        <v>1.347231804203977</v>
       </c>
       <c r="M6">
-        <v>1.42128269992684</v>
+        <v>1.875525065982197</v>
       </c>
       <c r="N6">
-        <v>1.42128269992684</v>
+        <v>1.875525065982197</v>
       </c>
       <c r="O6">
-        <v>1.316817927713279</v>
+        <v>1.576822485392525</v>
       </c>
       <c r="P6">
-        <v>1.602863540694338</v>
+        <v>1.728246124497071</v>
       </c>
       <c r="Q6">
-        <v>1.602863540694338</v>
+        <v>1.728246124497071</v>
       </c>
       <c r="R6">
-        <v>1.693653961078087</v>
+        <v>1.654606653754508</v>
       </c>
       <c r="S6">
-        <v>1.693653961078087</v>
+        <v>1.654606653754508</v>
       </c>
       <c r="T6">
-        <v>1.314810380699337</v>
+        <v>1.497684711073233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9984820781560051</v>
+        <v>0.3364971815366006</v>
       </c>
       <c r="D7">
-        <v>1.006051324090683</v>
+        <v>1.213131676113287</v>
       </c>
       <c r="E7">
-        <v>1.003294710403213</v>
+        <v>2.843849940529664</v>
       </c>
       <c r="F7">
-        <v>0.9987635887925134</v>
+        <v>1.311199008181328</v>
       </c>
       <c r="G7">
-        <v>1.007691357590838</v>
+        <v>0.2138148953858144</v>
       </c>
       <c r="H7">
-        <v>1.001764930746468</v>
+        <v>1.134388860034785</v>
       </c>
       <c r="I7">
-        <v>1.007691357590838</v>
+        <v>0.2138148953858144</v>
       </c>
       <c r="J7">
-        <v>1.003294710403213</v>
+        <v>2.843849940529664</v>
       </c>
       <c r="K7">
-        <v>1.003294710403213</v>
+        <v>2.843849940529664</v>
       </c>
       <c r="L7">
-        <v>1.001764930746468</v>
+        <v>1.134388860034785</v>
       </c>
       <c r="M7">
-        <v>1.004728144168653</v>
+        <v>0.6741018777102995</v>
       </c>
       <c r="N7">
-        <v>1.004728144168653</v>
+        <v>0.6741018777102995</v>
       </c>
       <c r="O7">
-        <v>1.002646122164437</v>
+        <v>0.5615669789857333</v>
       </c>
       <c r="P7">
-        <v>1.004250332913506</v>
+        <v>1.397351231983421</v>
       </c>
       <c r="Q7">
-        <v>1.004250332913506</v>
+        <v>1.397351231983421</v>
       </c>
       <c r="R7">
-        <v>1.004011427285933</v>
+        <v>1.758975909119982</v>
       </c>
       <c r="S7">
-        <v>1.004011427285933</v>
+        <v>1.758975909119982</v>
       </c>
       <c r="T7">
-        <v>1.002674664963287</v>
+        <v>1.175480260296913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9978898306920601</v>
+        <v>0.3344635662596602</v>
       </c>
       <c r="D8">
-        <v>1.013111075851285</v>
+        <v>1.230240549775115</v>
       </c>
       <c r="E8">
-        <v>1.015406698916306</v>
+        <v>2.884660739830796</v>
       </c>
       <c r="F8">
-        <v>0.997080579608291</v>
+        <v>1.304886867920581</v>
       </c>
       <c r="G8">
-        <v>1.015882171837377</v>
+        <v>0.2429970225003407</v>
       </c>
       <c r="H8">
-        <v>1.003268334949201</v>
+        <v>1.137638030994061</v>
       </c>
       <c r="I8">
-        <v>1.015882171837377</v>
+        <v>0.2429970225003407</v>
       </c>
       <c r="J8">
-        <v>1.015406698916306</v>
+        <v>2.884660739830796</v>
       </c>
       <c r="K8">
-        <v>1.015406698916306</v>
+        <v>2.884660739830796</v>
       </c>
       <c r="L8">
-        <v>1.003268334949201</v>
+        <v>1.137638030994061</v>
       </c>
       <c r="M8">
-        <v>1.009575253393289</v>
+        <v>0.690317526747201</v>
       </c>
       <c r="N8">
-        <v>1.009575253393289</v>
+        <v>0.690317526747201</v>
       </c>
       <c r="O8">
-        <v>1.005680112492879</v>
+        <v>0.5716995399180208</v>
       </c>
       <c r="P8">
-        <v>1.011519068567628</v>
+        <v>1.421765264441732</v>
       </c>
       <c r="Q8">
-        <v>1.011519068567628</v>
+        <v>1.421765264441732</v>
       </c>
       <c r="R8">
-        <v>1.012490976154797</v>
+        <v>1.787489133288998</v>
       </c>
       <c r="S8">
-        <v>1.012490976154797</v>
+        <v>1.787489133288998</v>
       </c>
       <c r="T8">
-        <v>1.00710644864242</v>
+        <v>1.189147796213425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9974358040404515</v>
+        <v>0.3315794541887148</v>
       </c>
       <c r="D9">
-        <v>1.015861432873706</v>
+        <v>1.257932002811143</v>
       </c>
       <c r="E9">
-        <v>1.061688897953421</v>
+        <v>2.882354423215589</v>
       </c>
       <c r="F9">
-        <v>0.9934577362922861</v>
+        <v>1.299699759169627</v>
       </c>
       <c r="G9">
-        <v>1.027549062646088</v>
+        <v>0.2829047718279821</v>
       </c>
       <c r="H9">
-        <v>1.012072610506374</v>
+        <v>1.146276207175367</v>
       </c>
       <c r="I9">
-        <v>1.027549062646088</v>
+        <v>0.2829047718279821</v>
       </c>
       <c r="J9">
-        <v>1.061688897953421</v>
+        <v>2.882354423215589</v>
       </c>
       <c r="K9">
-        <v>1.061688897953421</v>
+        <v>2.882354423215589</v>
       </c>
       <c r="L9">
-        <v>1.012072610506374</v>
+        <v>1.146276207175367</v>
       </c>
       <c r="M9">
-        <v>1.019810836576231</v>
+        <v>0.7145904895016746</v>
       </c>
       <c r="N9">
-        <v>1.019810836576231</v>
+        <v>0.7145904895016746</v>
       </c>
       <c r="O9">
-        <v>1.012352492397637</v>
+        <v>0.5869201443973546</v>
       </c>
       <c r="P9">
-        <v>1.033770190368627</v>
+        <v>1.437178467406313</v>
       </c>
       <c r="Q9">
-        <v>1.033770190368627</v>
+        <v>1.437178467406313</v>
       </c>
       <c r="R9">
-        <v>1.040749867264826</v>
+        <v>1.798472456358632</v>
       </c>
       <c r="S9">
-        <v>1.040749867264826</v>
+        <v>1.798472456358632</v>
       </c>
       <c r="T9">
-        <v>1.018010924052054</v>
+        <v>1.200124436398071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9928429040132236</v>
+        <v>0.3217403369762453</v>
       </c>
       <c r="D10">
-        <v>1.042009453689955</v>
+        <v>1.301179934734428</v>
       </c>
       <c r="E10">
-        <v>1.077200598532416</v>
+        <v>3.117432964721195</v>
       </c>
       <c r="F10">
-        <v>0.997696575731181</v>
+        <v>1.278089842005979</v>
       </c>
       <c r="G10">
-        <v>1.041943231004773</v>
+        <v>0.3570875271273996</v>
       </c>
       <c r="H10">
-        <v>1.012074992291336</v>
+        <v>1.154334734552547</v>
       </c>
       <c r="I10">
-        <v>1.041943231004773</v>
+        <v>0.3570875271273996</v>
       </c>
       <c r="J10">
-        <v>1.077200598532416</v>
+        <v>3.117432964721195</v>
       </c>
       <c r="K10">
-        <v>1.077200598532416</v>
+        <v>3.117432964721195</v>
       </c>
       <c r="L10">
-        <v>1.012074992291336</v>
+        <v>1.154334734552547</v>
       </c>
       <c r="M10">
-        <v>1.027009111648054</v>
+        <v>0.7557111308399732</v>
       </c>
       <c r="N10">
-        <v>1.027009111648054</v>
+        <v>0.7557111308399732</v>
       </c>
       <c r="O10">
-        <v>1.015620375769777</v>
+        <v>0.6110541995520639</v>
       </c>
       <c r="P10">
-        <v>1.043739607276175</v>
+        <v>1.542951742133714</v>
       </c>
       <c r="Q10">
-        <v>1.043739607276175</v>
+        <v>1.542951742133714</v>
       </c>
       <c r="R10">
-        <v>1.052104855090235</v>
+        <v>1.936572047780584</v>
       </c>
       <c r="S10">
-        <v>1.052104855090235</v>
+        <v>1.936572047780584</v>
       </c>
       <c r="T10">
-        <v>1.027294625877147</v>
+        <v>1.254977556686299</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9857354605919343</v>
+        <v>1.005187442455897</v>
       </c>
       <c r="D11">
-        <v>1.062064750275661</v>
+        <v>0.9775521920204936</v>
       </c>
       <c r="E11">
-        <v>1.270270027983209</v>
+        <v>1.072411269705083</v>
       </c>
       <c r="F11">
-        <v>0.9800402034394102</v>
+        <v>1.002275953246712</v>
       </c>
       <c r="G11">
-        <v>1.050035266139393</v>
+        <v>1.00984222400944</v>
       </c>
       <c r="H11">
-        <v>1.036048853841805</v>
+        <v>0.9975555909275758</v>
       </c>
       <c r="I11">
-        <v>1.050035266139393</v>
+        <v>1.00984222400944</v>
       </c>
       <c r="J11">
-        <v>1.270270027983209</v>
+        <v>1.072411269705083</v>
       </c>
       <c r="K11">
-        <v>1.270270027983209</v>
+        <v>1.072411269705083</v>
       </c>
       <c r="L11">
-        <v>1.036048853841805</v>
+        <v>0.9975555909275758</v>
       </c>
       <c r="M11">
-        <v>1.043042059990599</v>
+        <v>1.003698907468508</v>
       </c>
       <c r="N11">
-        <v>1.043042059990599</v>
+        <v>1.003698907468508</v>
       </c>
       <c r="O11">
-        <v>1.023939860191044</v>
+        <v>1.004195085797638</v>
       </c>
       <c r="P11">
-        <v>1.118784715988135</v>
+        <v>1.026603028214033</v>
       </c>
       <c r="Q11">
-        <v>1.118784715988135</v>
+        <v>1.026603028214033</v>
       </c>
       <c r="R11">
-        <v>1.156656043986904</v>
+        <v>1.038055088586796</v>
       </c>
       <c r="S11">
-        <v>1.156656043986904</v>
+        <v>1.038055088586796</v>
       </c>
       <c r="T11">
-        <v>1.064032427045235</v>
+        <v>1.010804112060867</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.294687972337101</v>
+        <v>0.9988844143520771</v>
       </c>
       <c r="D12">
-        <v>0.01878657451929507</v>
+        <v>0.9962106564952298</v>
       </c>
       <c r="E12">
-        <v>1.637772696181906</v>
+        <v>1.041512199960148</v>
       </c>
       <c r="F12">
-        <v>1.224471727757228</v>
+        <v>1.001348485058559</v>
       </c>
       <c r="G12">
-        <v>0.07408384327928993</v>
+        <v>1.005079320744679</v>
       </c>
       <c r="H12">
-        <v>1.031808577725423</v>
+        <v>1.001981592087085</v>
       </c>
       <c r="I12">
-        <v>0.07408384327928993</v>
+        <v>1.005079320744679</v>
       </c>
       <c r="J12">
-        <v>1.637772696181906</v>
+        <v>1.041512199960148</v>
       </c>
       <c r="K12">
-        <v>1.637772696181906</v>
+        <v>1.041512199960148</v>
       </c>
       <c r="L12">
-        <v>1.031808577725423</v>
+        <v>1.001981592087085</v>
       </c>
       <c r="M12">
-        <v>0.5529462105023566</v>
+        <v>1.003530456415882</v>
       </c>
       <c r="N12">
-        <v>0.5529462105023566</v>
+        <v>1.003530456415882</v>
       </c>
       <c r="O12">
-        <v>0.8001934644472715</v>
+        <v>1.001981775727947</v>
       </c>
       <c r="P12">
-        <v>0.9145550390622065</v>
+        <v>1.016191037597304</v>
       </c>
       <c r="Q12">
-        <v>0.9145550390622065</v>
+        <v>1.016191037597304</v>
       </c>
       <c r="R12">
-        <v>1.095359453342132</v>
+        <v>1.022521328188015</v>
       </c>
       <c r="S12">
-        <v>1.095359453342132</v>
+        <v>1.022521328188015</v>
       </c>
       <c r="T12">
-        <v>0.8802685653000406</v>
+        <v>1.007502778116296</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7458314991221103</v>
+        <v>1.000518562966152</v>
       </c>
       <c r="D13">
-        <v>1.439684395819204</v>
+        <v>0.9893751114418607</v>
       </c>
       <c r="E13">
-        <v>0.9591417196820489</v>
+        <v>1.154685251662818</v>
       </c>
       <c r="F13">
-        <v>0.9024888776461023</v>
+        <v>1.032883936589181</v>
       </c>
       <c r="G13">
-        <v>2.033277462835631</v>
+        <v>1.001740657943816</v>
       </c>
       <c r="H13">
-        <v>0.9142597314500865</v>
+        <v>1.007262043153116</v>
       </c>
       <c r="I13">
-        <v>2.033277462835631</v>
+        <v>1.001740657943816</v>
       </c>
       <c r="J13">
-        <v>0.9591417196820489</v>
+        <v>1.154685251662818</v>
       </c>
       <c r="K13">
-        <v>0.9591417196820489</v>
+        <v>1.154685251662818</v>
       </c>
       <c r="L13">
-        <v>0.9142597314500865</v>
+        <v>1.007262043153116</v>
       </c>
       <c r="M13">
-        <v>1.473768597142859</v>
+        <v>1.004501350548466</v>
       </c>
       <c r="N13">
-        <v>1.473768597142859</v>
+        <v>1.004501350548466</v>
       </c>
       <c r="O13">
-        <v>1.231122897802609</v>
+        <v>1.003173754687695</v>
       </c>
       <c r="P13">
-        <v>1.302226304655922</v>
+        <v>1.054562650919916</v>
       </c>
       <c r="Q13">
-        <v>1.302226304655922</v>
+        <v>1.054562650919916</v>
       </c>
       <c r="R13">
-        <v>1.216455158412454</v>
+        <v>1.079593301105642</v>
       </c>
       <c r="S13">
-        <v>1.216455158412454</v>
+        <v>1.079593301105642</v>
       </c>
       <c r="T13">
-        <v>1.165780614425864</v>
+        <v>1.031077593959491</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.40161374224752</v>
+        <v>1.086292974638724</v>
       </c>
       <c r="D14">
-        <v>1.047283324980464</v>
+        <v>1.007779429812652</v>
       </c>
       <c r="E14">
-        <v>0.4575240688298542</v>
+        <v>1.633173471879646</v>
       </c>
       <c r="F14">
-        <v>1.002912250887597</v>
+        <v>0.9596439892487667</v>
       </c>
       <c r="G14">
-        <v>1.67335477920264</v>
+        <v>1.238341409989963</v>
       </c>
       <c r="H14">
-        <v>0.7298618612238877</v>
+        <v>1.088422518104672</v>
       </c>
       <c r="I14">
-        <v>1.67335477920264</v>
+        <v>1.238341409989963</v>
       </c>
       <c r="J14">
-        <v>0.4575240688298542</v>
+        <v>1.633173471879646</v>
       </c>
       <c r="K14">
-        <v>0.4575240688298542</v>
+        <v>1.633173471879646</v>
       </c>
       <c r="L14">
-        <v>0.7298618612238877</v>
+        <v>1.088422518104672</v>
       </c>
       <c r="M14">
-        <v>1.201608320213264</v>
+        <v>1.163381964047317</v>
       </c>
       <c r="N14">
-        <v>1.201608320213264</v>
+        <v>1.163381964047317</v>
       </c>
       <c r="O14">
-        <v>1.268276794224683</v>
+        <v>1.137685634244453</v>
       </c>
       <c r="P14">
-        <v>0.9535802364187941</v>
+        <v>1.31997913332476</v>
       </c>
       <c r="Q14">
-        <v>0.9535802364187941</v>
+        <v>1.31997913332476</v>
       </c>
       <c r="R14">
-        <v>0.8295661945215591</v>
+        <v>1.398277717963482</v>
       </c>
       <c r="S14">
-        <v>0.8295661945215591</v>
+        <v>1.398277717963482</v>
       </c>
       <c r="T14">
-        <v>1.052091671228661</v>
+        <v>1.168942298945737</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.152505170403554</v>
+        <v>1.004613277001391</v>
       </c>
       <c r="D15">
-        <v>0.583109778582349</v>
+        <v>0.987106713903782</v>
       </c>
       <c r="E15">
-        <v>0.7839152245950087</v>
+        <v>1.079406994042215</v>
       </c>
       <c r="F15">
-        <v>0.9405966316423949</v>
+        <v>0.9963355806642568</v>
       </c>
       <c r="G15">
-        <v>0.3557094499442442</v>
+        <v>1.016662507450587</v>
       </c>
       <c r="H15">
-        <v>0.8992704960297836</v>
+        <v>1.004068493749714</v>
       </c>
       <c r="I15">
-        <v>0.3557094499442442</v>
+        <v>1.016662507450587</v>
       </c>
       <c r="J15">
-        <v>0.7839152245950087</v>
+        <v>1.079406994042215</v>
       </c>
       <c r="K15">
-        <v>0.7839152245950087</v>
+        <v>1.079406994042215</v>
       </c>
       <c r="L15">
-        <v>0.8992704960297836</v>
+        <v>1.004068493749714</v>
       </c>
       <c r="M15">
-        <v>0.6274899729870139</v>
+        <v>1.01036550060015</v>
       </c>
       <c r="N15">
-        <v>0.6274899729870139</v>
+        <v>1.01036550060015</v>
       </c>
       <c r="O15">
-        <v>0.8024950387925273</v>
+        <v>1.008448092733897</v>
       </c>
       <c r="P15">
-        <v>0.6796317235230122</v>
+        <v>1.033379331747505</v>
       </c>
       <c r="Q15">
-        <v>0.6796317235230122</v>
+        <v>1.033379331747505</v>
       </c>
       <c r="R15">
-        <v>0.7057025987910113</v>
+        <v>1.044886247321183</v>
       </c>
       <c r="S15">
-        <v>0.7057025987910113</v>
+        <v>1.044886247321183</v>
       </c>
       <c r="T15">
-        <v>0.7858511251995557</v>
+        <v>1.014698927801991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.09079039170904</v>
+        <v>1.010683176058719</v>
       </c>
       <c r="D16">
-        <v>0.7513009932036921</v>
+        <v>0.9920942553586195</v>
       </c>
       <c r="E16">
-        <v>2.273643218363925</v>
+        <v>1.160371859739484</v>
       </c>
       <c r="F16">
-        <v>0.9996070896966706</v>
+        <v>1.002736218995435</v>
       </c>
       <c r="G16">
-        <v>1.291434026066856</v>
+        <v>1.054270915427416</v>
       </c>
       <c r="H16">
-        <v>0.9930068077890133</v>
+        <v>1.005976965117355</v>
       </c>
       <c r="I16">
-        <v>1.291434026066856</v>
+        <v>1.054270915427416</v>
       </c>
       <c r="J16">
-        <v>2.273643218363925</v>
+        <v>1.160371859739484</v>
       </c>
       <c r="K16">
-        <v>2.273643218363925</v>
+        <v>1.160371859739484</v>
       </c>
       <c r="L16">
-        <v>0.9930068077890133</v>
+        <v>1.005976965117355</v>
       </c>
       <c r="M16">
-        <v>1.142220416927934</v>
+        <v>1.030123940272385</v>
       </c>
       <c r="N16">
-        <v>1.142220416927934</v>
+        <v>1.030123940272385</v>
       </c>
       <c r="O16">
-        <v>1.125077075188303</v>
+        <v>1.023643685534497</v>
       </c>
       <c r="P16">
-        <v>1.519361350739931</v>
+        <v>1.073539913428085</v>
       </c>
       <c r="Q16">
-        <v>1.519361350739931</v>
+        <v>1.073539913428085</v>
       </c>
       <c r="R16">
-        <v>1.707931817645929</v>
+        <v>1.095247900005935</v>
       </c>
       <c r="S16">
-        <v>1.707931817645929</v>
+        <v>1.095247900005935</v>
       </c>
       <c r="T16">
-        <v>1.233297087804866</v>
+        <v>1.037688898449505</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.047576710622516</v>
+        <v>1.049181017871849</v>
       </c>
       <c r="D17">
-        <v>0.9543421509188408</v>
+        <v>1.060653894628253</v>
       </c>
       <c r="E17">
-        <v>1.814201795604204</v>
+        <v>1.402741545515485</v>
       </c>
       <c r="F17">
-        <v>0.9800175723789271</v>
+        <v>1.068856539843524</v>
       </c>
       <c r="G17">
-        <v>1.348709146332659</v>
+        <v>1.112170160501387</v>
       </c>
       <c r="H17">
-        <v>1.032060956432391</v>
+        <v>0.9698324934895389</v>
       </c>
       <c r="I17">
-        <v>1.348709146332659</v>
+        <v>1.112170160501387</v>
       </c>
       <c r="J17">
-        <v>1.814201795604204</v>
+        <v>1.402741545515485</v>
       </c>
       <c r="K17">
-        <v>1.814201795604204</v>
+        <v>1.402741545515485</v>
       </c>
       <c r="L17">
-        <v>1.032060956432391</v>
+        <v>0.9698324934895389</v>
       </c>
       <c r="M17">
-        <v>1.190385051382525</v>
+        <v>1.041001326995463</v>
       </c>
       <c r="N17">
-        <v>1.190385051382525</v>
+        <v>1.041001326995463</v>
       </c>
       <c r="O17">
-        <v>1.142782271129189</v>
+        <v>1.043727890620925</v>
       </c>
       <c r="P17">
-        <v>1.398323966123085</v>
+        <v>1.16158139983547</v>
       </c>
       <c r="Q17">
-        <v>1.398323966123085</v>
+        <v>1.16158139983547</v>
       </c>
       <c r="R17">
-        <v>1.502293423493365</v>
+        <v>1.221871436255474</v>
       </c>
       <c r="S17">
-        <v>1.502293423493365</v>
+        <v>1.221871436255474</v>
       </c>
       <c r="T17">
-        <v>1.196151388714923</v>
+        <v>1.110572608641673</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9573262242637843</v>
+        <v>1.107888383286157</v>
       </c>
       <c r="D18">
-        <v>1.358598600226537</v>
+        <v>1.029615087278885</v>
       </c>
       <c r="E18">
-        <v>0.9296243199580099</v>
+        <v>1.966025222229333</v>
       </c>
       <c r="F18">
-        <v>0.9448513850023761</v>
+        <v>0.9427681915479699</v>
       </c>
       <c r="G18">
-        <v>1.445992440932048</v>
+        <v>1.609971651226886</v>
       </c>
       <c r="H18">
-        <v>1.110917709408289</v>
+        <v>1.232593748626794</v>
       </c>
       <c r="I18">
-        <v>1.445992440932048</v>
+        <v>1.609971651226886</v>
       </c>
       <c r="J18">
-        <v>0.9296243199580099</v>
+        <v>1.966025222229333</v>
       </c>
       <c r="K18">
-        <v>0.9296243199580099</v>
+        <v>1.966025222229333</v>
       </c>
       <c r="L18">
-        <v>1.110917709408289</v>
+        <v>1.232593748626794</v>
       </c>
       <c r="M18">
-        <v>1.278455075170169</v>
+        <v>1.42128269992684</v>
       </c>
       <c r="N18">
-        <v>1.278455075170169</v>
+        <v>1.42128269992684</v>
       </c>
       <c r="O18">
-        <v>1.17141212486804</v>
+        <v>1.316817927713279</v>
       </c>
       <c r="P18">
-        <v>1.162178156766116</v>
+        <v>1.602863540694338</v>
       </c>
       <c r="Q18">
-        <v>1.162178156766116</v>
+        <v>1.602863540694338</v>
       </c>
       <c r="R18">
-        <v>1.104039697564089</v>
+        <v>1.693653961078087</v>
       </c>
       <c r="S18">
-        <v>1.104039697564089</v>
+        <v>1.693653961078087</v>
       </c>
       <c r="T18">
-        <v>1.124551779965174</v>
+        <v>1.314810380699337</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9330869611394174</v>
+        <v>0.9984820781560051</v>
       </c>
       <c r="D19">
-        <v>1.581040785684955</v>
+        <v>1.006051324090683</v>
       </c>
       <c r="E19">
-        <v>0.8360852094661078</v>
+        <v>1.003294710403213</v>
       </c>
       <c r="F19">
-        <v>0.9389382222568182</v>
+        <v>0.9987635887925134</v>
       </c>
       <c r="G19">
-        <v>1.682642264230859</v>
+        <v>1.007691357590838</v>
       </c>
       <c r="H19">
-        <v>1.159227498276329</v>
+        <v>1.001764930746468</v>
       </c>
       <c r="I19">
-        <v>1.682642264230859</v>
+        <v>1.007691357590838</v>
       </c>
       <c r="J19">
-        <v>0.8360852094661078</v>
+        <v>1.003294710403213</v>
       </c>
       <c r="K19">
-        <v>0.8360852094661078</v>
+        <v>1.003294710403213</v>
       </c>
       <c r="L19">
-        <v>1.159227498276329</v>
+        <v>1.001764930746468</v>
       </c>
       <c r="M19">
-        <v>1.420934881253594</v>
+        <v>1.004728144168653</v>
       </c>
       <c r="N19">
-        <v>1.420934881253594</v>
+        <v>1.004728144168653</v>
       </c>
       <c r="O19">
-        <v>1.258318907882202</v>
+        <v>1.002646122164437</v>
       </c>
       <c r="P19">
-        <v>1.225984990657765</v>
+        <v>1.004250332913506</v>
       </c>
       <c r="Q19">
-        <v>1.225984990657765</v>
+        <v>1.004250332913506</v>
       </c>
       <c r="R19">
-        <v>1.128510045359851</v>
+        <v>1.004011427285933</v>
       </c>
       <c r="S19">
-        <v>1.128510045359851</v>
+        <v>1.004011427285933</v>
       </c>
       <c r="T19">
-        <v>1.188503490175748</v>
+        <v>1.002674664963287</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9995377376482745</v>
+        <v>0.9978898306920601</v>
       </c>
       <c r="D20">
-        <v>1.010291171767606</v>
+        <v>1.013111075851285</v>
       </c>
       <c r="E20">
-        <v>0.9890032419192826</v>
+        <v>1.015406698916306</v>
       </c>
       <c r="F20">
-        <v>0.9988834546969116</v>
+        <v>0.997080579608291</v>
       </c>
       <c r="G20">
-        <v>1.001561376117089</v>
+        <v>1.015882171837377</v>
       </c>
       <c r="H20">
-        <v>1.006238896110204</v>
+        <v>1.003268334949201</v>
       </c>
       <c r="I20">
-        <v>1.001561376117089</v>
+        <v>1.015882171837377</v>
       </c>
       <c r="J20">
-        <v>0.9890032419192826</v>
+        <v>1.015406698916306</v>
       </c>
       <c r="K20">
-        <v>0.9890032419192826</v>
+        <v>1.015406698916306</v>
       </c>
       <c r="L20">
-        <v>1.006238896110204</v>
+        <v>1.003268334949201</v>
       </c>
       <c r="M20">
-        <v>1.003900136113646</v>
+        <v>1.009575253393289</v>
       </c>
       <c r="N20">
-        <v>1.003900136113646</v>
+        <v>1.009575253393289</v>
       </c>
       <c r="O20">
-        <v>1.002446003291856</v>
+        <v>1.005680112492879</v>
       </c>
       <c r="P20">
-        <v>0.9989345047155251</v>
+        <v>1.011519068567628</v>
       </c>
       <c r="Q20">
-        <v>0.998934504715525</v>
+        <v>1.011519068567628</v>
       </c>
       <c r="R20">
-        <v>0.9964516890164644</v>
+        <v>1.012490976154797</v>
       </c>
       <c r="S20">
-        <v>0.9964516890164644</v>
+        <v>1.012490976154797</v>
       </c>
       <c r="T20">
-        <v>1.000919313043228</v>
+        <v>1.00710644864242</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9987654467365579</v>
+        <v>0.9974358040404515</v>
       </c>
       <c r="D21">
-        <v>0.9959415265729484</v>
+        <v>1.015861432873706</v>
       </c>
       <c r="E21">
-        <v>1.025841880379657</v>
+        <v>1.061688897953421</v>
       </c>
       <c r="F21">
-        <v>1.001369418336008</v>
+        <v>0.9934577362922861</v>
       </c>
       <c r="G21">
-        <v>1.014946977590071</v>
+        <v>1.027549062646088</v>
       </c>
       <c r="H21">
-        <v>0.9933879375166086</v>
+        <v>1.012072610506374</v>
       </c>
       <c r="I21">
-        <v>1.014946977590071</v>
+        <v>1.027549062646088</v>
       </c>
       <c r="J21">
-        <v>1.025841880379657</v>
+        <v>1.061688897953421</v>
       </c>
       <c r="K21">
-        <v>1.025841880379657</v>
+        <v>1.061688897953421</v>
       </c>
       <c r="L21">
-        <v>0.9933879375166086</v>
+        <v>1.012072610506374</v>
       </c>
       <c r="M21">
-        <v>1.00416745755334</v>
+        <v>1.019810836576231</v>
       </c>
       <c r="N21">
-        <v>1.00416745755334</v>
+        <v>1.019810836576231</v>
       </c>
       <c r="O21">
-        <v>1.002366787281079</v>
+        <v>1.012352492397637</v>
       </c>
       <c r="P21">
-        <v>1.011392265162112</v>
+        <v>1.033770190368627</v>
       </c>
       <c r="Q21">
-        <v>1.011392265162112</v>
+        <v>1.033770190368627</v>
       </c>
       <c r="R21">
-        <v>1.015004668966498</v>
+        <v>1.040749867264826</v>
       </c>
       <c r="S21">
-        <v>1.015004668966498</v>
+        <v>1.040749867264826</v>
       </c>
       <c r="T21">
-        <v>1.005042197855308</v>
+        <v>1.018010924052054</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9919991797861717</v>
+        <v>0.9928429040132236</v>
       </c>
       <c r="D22">
-        <v>1.011559881427442</v>
+        <v>1.042009453689955</v>
       </c>
       <c r="E22">
-        <v>1.167294561285604</v>
+        <v>1.077200598532416</v>
       </c>
       <c r="F22">
-        <v>1.010045987779417</v>
+        <v>0.997696575731181</v>
       </c>
       <c r="G22">
-        <v>0.9960134456364863</v>
+        <v>1.041943231004773</v>
       </c>
       <c r="H22">
-        <v>0.9906176350870359</v>
+        <v>1.012074992291336</v>
       </c>
       <c r="I22">
-        <v>0.9960134456364863</v>
+        <v>1.041943231004773</v>
       </c>
       <c r="J22">
-        <v>1.167294561285604</v>
+        <v>1.077200598532416</v>
       </c>
       <c r="K22">
-        <v>1.167294561285604</v>
+        <v>1.077200598532416</v>
       </c>
       <c r="L22">
-        <v>0.9906176350870359</v>
+        <v>1.012074992291336</v>
       </c>
       <c r="M22">
-        <v>0.9933155403617611</v>
+        <v>1.027009111648054</v>
       </c>
       <c r="N22">
-        <v>0.9933155403617611</v>
+        <v>1.027009111648054</v>
       </c>
       <c r="O22">
-        <v>0.9928767535032312</v>
+        <v>1.015620375769777</v>
       </c>
       <c r="P22">
-        <v>1.051308547336375</v>
+        <v>1.043739607276175</v>
       </c>
       <c r="Q22">
-        <v>1.051308547336375</v>
+        <v>1.043739607276175</v>
       </c>
       <c r="R22">
-        <v>1.080305050823682</v>
+        <v>1.052104855090235</v>
       </c>
       <c r="S22">
-        <v>1.080305050823682</v>
+        <v>1.052104855090235</v>
       </c>
       <c r="T22">
-        <v>1.027921781833693</v>
+        <v>1.027294625877147</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9857354605919343</v>
+      </c>
+      <c r="D23">
+        <v>1.062064750275661</v>
+      </c>
+      <c r="E23">
+        <v>1.270270027983209</v>
+      </c>
+      <c r="F23">
+        <v>0.9800402034394102</v>
+      </c>
+      <c r="G23">
+        <v>1.050035266139393</v>
+      </c>
+      <c r="H23">
+        <v>1.036048853841805</v>
+      </c>
+      <c r="I23">
+        <v>1.050035266139393</v>
+      </c>
+      <c r="J23">
+        <v>1.270270027983209</v>
+      </c>
+      <c r="K23">
+        <v>1.270270027983209</v>
+      </c>
+      <c r="L23">
+        <v>1.036048853841805</v>
+      </c>
+      <c r="M23">
+        <v>1.043042059990599</v>
+      </c>
+      <c r="N23">
+        <v>1.043042059990599</v>
+      </c>
+      <c r="O23">
+        <v>1.023939860191044</v>
+      </c>
+      <c r="P23">
+        <v>1.118784715988135</v>
+      </c>
+      <c r="Q23">
+        <v>1.118784715988135</v>
+      </c>
+      <c r="R23">
+        <v>1.156656043986904</v>
+      </c>
+      <c r="S23">
+        <v>1.156656043986904</v>
+      </c>
+      <c r="T23">
+        <v>1.064032427045235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.294687972337101</v>
+      </c>
+      <c r="D24">
+        <v>0.01878657451929507</v>
+      </c>
+      <c r="E24">
+        <v>1.637772696181906</v>
+      </c>
+      <c r="F24">
+        <v>1.224471727757228</v>
+      </c>
+      <c r="G24">
+        <v>0.07408384327928993</v>
+      </c>
+      <c r="H24">
+        <v>1.031808577725423</v>
+      </c>
+      <c r="I24">
+        <v>0.07408384327928993</v>
+      </c>
+      <c r="J24">
+        <v>1.637772696181906</v>
+      </c>
+      <c r="K24">
+        <v>1.637772696181906</v>
+      </c>
+      <c r="L24">
+        <v>1.031808577725423</v>
+      </c>
+      <c r="M24">
+        <v>0.5529462105023566</v>
+      </c>
+      <c r="N24">
+        <v>0.5529462105023566</v>
+      </c>
+      <c r="O24">
+        <v>0.8001934644472715</v>
+      </c>
+      <c r="P24">
+        <v>0.9145550390622065</v>
+      </c>
+      <c r="Q24">
+        <v>0.9145550390622065</v>
+      </c>
+      <c r="R24">
+        <v>1.095359453342132</v>
+      </c>
+      <c r="S24">
+        <v>1.095359453342132</v>
+      </c>
+      <c r="T24">
+        <v>0.8802685653000406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7458314991221103</v>
+      </c>
+      <c r="D25">
+        <v>1.439684395819204</v>
+      </c>
+      <c r="E25">
+        <v>0.9591417196820489</v>
+      </c>
+      <c r="F25">
+        <v>0.9024888776461023</v>
+      </c>
+      <c r="G25">
+        <v>2.033277462835631</v>
+      </c>
+      <c r="H25">
+        <v>0.9142597314500865</v>
+      </c>
+      <c r="I25">
+        <v>2.033277462835631</v>
+      </c>
+      <c r="J25">
+        <v>0.9591417196820489</v>
+      </c>
+      <c r="K25">
+        <v>0.9591417196820489</v>
+      </c>
+      <c r="L25">
+        <v>0.9142597314500865</v>
+      </c>
+      <c r="M25">
+        <v>1.473768597142859</v>
+      </c>
+      <c r="N25">
+        <v>1.473768597142859</v>
+      </c>
+      <c r="O25">
+        <v>1.231122897802609</v>
+      </c>
+      <c r="P25">
+        <v>1.302226304655922</v>
+      </c>
+      <c r="Q25">
+        <v>1.302226304655922</v>
+      </c>
+      <c r="R25">
+        <v>1.216455158412454</v>
+      </c>
+      <c r="S25">
+        <v>1.216455158412454</v>
+      </c>
+      <c r="T25">
+        <v>1.165780614425864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.40161374224752</v>
+      </c>
+      <c r="D26">
+        <v>1.047283324980464</v>
+      </c>
+      <c r="E26">
+        <v>0.4575240688298542</v>
+      </c>
+      <c r="F26">
+        <v>1.002912250887597</v>
+      </c>
+      <c r="G26">
+        <v>1.67335477920264</v>
+      </c>
+      <c r="H26">
+        <v>0.7298618612238877</v>
+      </c>
+      <c r="I26">
+        <v>1.67335477920264</v>
+      </c>
+      <c r="J26">
+        <v>0.4575240688298542</v>
+      </c>
+      <c r="K26">
+        <v>0.4575240688298542</v>
+      </c>
+      <c r="L26">
+        <v>0.7298618612238877</v>
+      </c>
+      <c r="M26">
+        <v>1.201608320213264</v>
+      </c>
+      <c r="N26">
+        <v>1.201608320213264</v>
+      </c>
+      <c r="O26">
+        <v>1.268276794224683</v>
+      </c>
+      <c r="P26">
+        <v>0.9535802364187941</v>
+      </c>
+      <c r="Q26">
+        <v>0.9535802364187941</v>
+      </c>
+      <c r="R26">
+        <v>0.8295661945215591</v>
+      </c>
+      <c r="S26">
+        <v>0.8295661945215591</v>
+      </c>
+      <c r="T26">
+        <v>1.052091671228661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.152505170403554</v>
+      </c>
+      <c r="D27">
+        <v>0.583109778582349</v>
+      </c>
+      <c r="E27">
+        <v>0.7839152245950087</v>
+      </c>
+      <c r="F27">
+        <v>0.9405966316423949</v>
+      </c>
+      <c r="G27">
+        <v>0.3557094499442442</v>
+      </c>
+      <c r="H27">
+        <v>0.8992704960297836</v>
+      </c>
+      <c r="I27">
+        <v>0.3557094499442442</v>
+      </c>
+      <c r="J27">
+        <v>0.7839152245950087</v>
+      </c>
+      <c r="K27">
+        <v>0.7839152245950087</v>
+      </c>
+      <c r="L27">
+        <v>0.8992704960297836</v>
+      </c>
+      <c r="M27">
+        <v>0.6274899729870139</v>
+      </c>
+      <c r="N27">
+        <v>0.6274899729870139</v>
+      </c>
+      <c r="O27">
+        <v>0.8024950387925273</v>
+      </c>
+      <c r="P27">
+        <v>0.6796317235230122</v>
+      </c>
+      <c r="Q27">
+        <v>0.6796317235230122</v>
+      </c>
+      <c r="R27">
+        <v>0.7057025987910113</v>
+      </c>
+      <c r="S27">
+        <v>0.7057025987910113</v>
+      </c>
+      <c r="T27">
+        <v>0.7858511251995557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.09079039170904</v>
+      </c>
+      <c r="D28">
+        <v>0.7513009932036921</v>
+      </c>
+      <c r="E28">
+        <v>2.273643218363925</v>
+      </c>
+      <c r="F28">
+        <v>0.9996070896966706</v>
+      </c>
+      <c r="G28">
+        <v>1.291434026066856</v>
+      </c>
+      <c r="H28">
+        <v>0.9930068077890133</v>
+      </c>
+      <c r="I28">
+        <v>1.291434026066856</v>
+      </c>
+      <c r="J28">
+        <v>2.273643218363925</v>
+      </c>
+      <c r="K28">
+        <v>2.273643218363925</v>
+      </c>
+      <c r="L28">
+        <v>0.9930068077890133</v>
+      </c>
+      <c r="M28">
+        <v>1.142220416927934</v>
+      </c>
+      <c r="N28">
+        <v>1.142220416927934</v>
+      </c>
+      <c r="O28">
+        <v>1.125077075188303</v>
+      </c>
+      <c r="P28">
+        <v>1.519361350739931</v>
+      </c>
+      <c r="Q28">
+        <v>1.519361350739931</v>
+      </c>
+      <c r="R28">
+        <v>1.707931817645929</v>
+      </c>
+      <c r="S28">
+        <v>1.707931817645929</v>
+      </c>
+      <c r="T28">
+        <v>1.233297087804866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.047576710622516</v>
+      </c>
+      <c r="D29">
+        <v>0.9543421509188408</v>
+      </c>
+      <c r="E29">
+        <v>1.814201795604204</v>
+      </c>
+      <c r="F29">
+        <v>0.9800175723789271</v>
+      </c>
+      <c r="G29">
+        <v>1.348709146332659</v>
+      </c>
+      <c r="H29">
+        <v>1.032060956432391</v>
+      </c>
+      <c r="I29">
+        <v>1.348709146332659</v>
+      </c>
+      <c r="J29">
+        <v>1.814201795604204</v>
+      </c>
+      <c r="K29">
+        <v>1.814201795604204</v>
+      </c>
+      <c r="L29">
+        <v>1.032060956432391</v>
+      </c>
+      <c r="M29">
+        <v>1.190385051382525</v>
+      </c>
+      <c r="N29">
+        <v>1.190385051382525</v>
+      </c>
+      <c r="O29">
+        <v>1.142782271129189</v>
+      </c>
+      <c r="P29">
+        <v>1.398323966123085</v>
+      </c>
+      <c r="Q29">
+        <v>1.398323966123085</v>
+      </c>
+      <c r="R29">
+        <v>1.502293423493365</v>
+      </c>
+      <c r="S29">
+        <v>1.502293423493365</v>
+      </c>
+      <c r="T29">
+        <v>1.196151388714923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9573262242637843</v>
+      </c>
+      <c r="D30">
+        <v>1.358598600226537</v>
+      </c>
+      <c r="E30">
+        <v>0.9296243199580099</v>
+      </c>
+      <c r="F30">
+        <v>0.9448513850023761</v>
+      </c>
+      <c r="G30">
+        <v>1.445992440932048</v>
+      </c>
+      <c r="H30">
+        <v>1.110917709408289</v>
+      </c>
+      <c r="I30">
+        <v>1.445992440932048</v>
+      </c>
+      <c r="J30">
+        <v>0.9296243199580099</v>
+      </c>
+      <c r="K30">
+        <v>0.9296243199580099</v>
+      </c>
+      <c r="L30">
+        <v>1.110917709408289</v>
+      </c>
+      <c r="M30">
+        <v>1.278455075170169</v>
+      </c>
+      <c r="N30">
+        <v>1.278455075170169</v>
+      </c>
+      <c r="O30">
+        <v>1.17141212486804</v>
+      </c>
+      <c r="P30">
+        <v>1.162178156766116</v>
+      </c>
+      <c r="Q30">
+        <v>1.162178156766116</v>
+      </c>
+      <c r="R30">
+        <v>1.104039697564089</v>
+      </c>
+      <c r="S30">
+        <v>1.104039697564089</v>
+      </c>
+      <c r="T30">
+        <v>1.124551779965174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9330869611394174</v>
+      </c>
+      <c r="D31">
+        <v>1.581040785684955</v>
+      </c>
+      <c r="E31">
+        <v>0.8360852094661078</v>
+      </c>
+      <c r="F31">
+        <v>0.9389382222568182</v>
+      </c>
+      <c r="G31">
+        <v>1.682642264230859</v>
+      </c>
+      <c r="H31">
+        <v>1.159227498276329</v>
+      </c>
+      <c r="I31">
+        <v>1.682642264230859</v>
+      </c>
+      <c r="J31">
+        <v>0.8360852094661078</v>
+      </c>
+      <c r="K31">
+        <v>0.8360852094661078</v>
+      </c>
+      <c r="L31">
+        <v>1.159227498276329</v>
+      </c>
+      <c r="M31">
+        <v>1.420934881253594</v>
+      </c>
+      <c r="N31">
+        <v>1.420934881253594</v>
+      </c>
+      <c r="O31">
+        <v>1.258318907882202</v>
+      </c>
+      <c r="P31">
+        <v>1.225984990657765</v>
+      </c>
+      <c r="Q31">
+        <v>1.225984990657765</v>
+      </c>
+      <c r="R31">
+        <v>1.128510045359851</v>
+      </c>
+      <c r="S31">
+        <v>1.128510045359851</v>
+      </c>
+      <c r="T31">
+        <v>1.188503490175748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.117762278646576</v>
+      </c>
+      <c r="D32">
+        <v>0.5442945388769862</v>
+      </c>
+      <c r="E32">
+        <v>3.116592506772493</v>
+      </c>
+      <c r="F32">
+        <v>1.004621909967123</v>
+      </c>
+      <c r="G32">
+        <v>1.222020527786027</v>
+      </c>
+      <c r="H32">
+        <v>0.941823580430685</v>
+      </c>
+      <c r="I32">
+        <v>1.222020527786027</v>
+      </c>
+      <c r="J32">
+        <v>3.116592506772493</v>
+      </c>
+      <c r="K32">
+        <v>3.116592506772493</v>
+      </c>
+      <c r="L32">
+        <v>0.941823580430685</v>
+      </c>
+      <c r="M32">
+        <v>1.081922054108356</v>
+      </c>
+      <c r="N32">
+        <v>1.081922054108356</v>
+      </c>
+      <c r="O32">
+        <v>1.093868795621096</v>
+      </c>
+      <c r="P32">
+        <v>1.760145538329735</v>
+      </c>
+      <c r="Q32">
+        <v>1.760145538329735</v>
+      </c>
+      <c r="R32">
+        <v>2.099257280440424</v>
+      </c>
+      <c r="S32">
+        <v>2.099257280440424</v>
+      </c>
+      <c r="T32">
+        <v>1.324519223746649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.03324863567105264</v>
+      </c>
+      <c r="D33">
+        <v>5.560112863157896</v>
+      </c>
+      <c r="E33">
+        <v>1.837908985187369</v>
+      </c>
+      <c r="F33">
+        <v>0.1351234507894737</v>
+      </c>
+      <c r="G33">
+        <v>3.673680562123157</v>
+      </c>
+      <c r="H33">
+        <v>1.855586412105263</v>
+      </c>
+      <c r="I33">
+        <v>3.673680562123157</v>
+      </c>
+      <c r="J33">
+        <v>1.837908985187369</v>
+      </c>
+      <c r="K33">
+        <v>1.837908985187369</v>
+      </c>
+      <c r="L33">
+        <v>1.855586412105263</v>
+      </c>
+      <c r="M33">
+        <v>2.76463348711421</v>
+      </c>
+      <c r="N33">
+        <v>2.76463348711421</v>
+      </c>
+      <c r="O33">
+        <v>1.854171869966491</v>
+      </c>
+      <c r="P33">
+        <v>2.455725319805263</v>
+      </c>
+      <c r="Q33">
+        <v>2.455725319805263</v>
+      </c>
+      <c r="R33">
+        <v>2.301271236150789</v>
+      </c>
+      <c r="S33">
+        <v>2.301271236150789</v>
+      </c>
+      <c r="T33">
+        <v>2.182610151505702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.3158065737710526</v>
+      </c>
+      <c r="D34">
+        <v>1.585693981274684</v>
+      </c>
+      <c r="E34">
+        <v>3.289981587202105</v>
+      </c>
+      <c r="F34">
+        <v>1.201020608905263</v>
+      </c>
+      <c r="G34">
+        <v>0.8353072804726313</v>
+      </c>
+      <c r="H34">
+        <v>1.217564790515526</v>
+      </c>
+      <c r="I34">
+        <v>0.8353072804726313</v>
+      </c>
+      <c r="J34">
+        <v>3.289981587202105</v>
+      </c>
+      <c r="K34">
+        <v>3.289981587202105</v>
+      </c>
+      <c r="L34">
+        <v>1.217564790515526</v>
+      </c>
+      <c r="M34">
+        <v>1.026436035494079</v>
+      </c>
+      <c r="N34">
+        <v>1.026436035494079</v>
+      </c>
+      <c r="O34">
+        <v>0.7895595482530701</v>
+      </c>
+      <c r="P34">
+        <v>1.780951219396754</v>
+      </c>
+      <c r="Q34">
+        <v>1.780951219396754</v>
+      </c>
+      <c r="R34">
+        <v>2.158208811348092</v>
+      </c>
+      <c r="S34">
+        <v>2.158208811348092</v>
+      </c>
+      <c r="T34">
+        <v>1.407562470356877</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.5050698878944563</v>
+      </c>
+      <c r="D35">
+        <v>4.57397808460892</v>
+      </c>
+      <c r="E35">
+        <v>0.4291439761925664</v>
+      </c>
+      <c r="F35">
+        <v>0.5280735945277163</v>
+      </c>
+      <c r="G35">
+        <v>5.789312741431431</v>
+      </c>
+      <c r="H35">
+        <v>2.107266426346532</v>
+      </c>
+      <c r="I35">
+        <v>5.789312741431431</v>
+      </c>
+      <c r="J35">
+        <v>0.4291439761925664</v>
+      </c>
+      <c r="K35">
+        <v>0.4291439761925664</v>
+      </c>
+      <c r="L35">
+        <v>2.107266426346532</v>
+      </c>
+      <c r="M35">
+        <v>3.948289583888982</v>
+      </c>
+      <c r="N35">
+        <v>3.948289583888982</v>
+      </c>
+      <c r="O35">
+        <v>2.800549685224139</v>
+      </c>
+      <c r="P35">
+        <v>2.775241047990177</v>
+      </c>
+      <c r="Q35">
+        <v>2.775241047990177</v>
+      </c>
+      <c r="R35">
+        <v>2.188716780040774</v>
+      </c>
+      <c r="S35">
+        <v>2.188716780040774</v>
+      </c>
+      <c r="T35">
+        <v>2.322140785166937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9995377376482745</v>
+      </c>
+      <c r="D36">
+        <v>1.010291171767606</v>
+      </c>
+      <c r="E36">
+        <v>0.9890032419192826</v>
+      </c>
+      <c r="F36">
+        <v>0.9988834546969116</v>
+      </c>
+      <c r="G36">
+        <v>1.001561376117089</v>
+      </c>
+      <c r="H36">
+        <v>1.006238896110204</v>
+      </c>
+      <c r="I36">
+        <v>1.001561376117089</v>
+      </c>
+      <c r="J36">
+        <v>0.9890032419192826</v>
+      </c>
+      <c r="K36">
+        <v>0.9890032419192826</v>
+      </c>
+      <c r="L36">
+        <v>1.006238896110204</v>
+      </c>
+      <c r="M36">
+        <v>1.003900136113646</v>
+      </c>
+      <c r="N36">
+        <v>1.003900136113646</v>
+      </c>
+      <c r="O36">
+        <v>1.002446003291856</v>
+      </c>
+      <c r="P36">
+        <v>0.9989345047155251</v>
+      </c>
+      <c r="Q36">
+        <v>0.998934504715525</v>
+      </c>
+      <c r="R36">
+        <v>0.9964516890164644</v>
+      </c>
+      <c r="S36">
+        <v>0.9964516890164644</v>
+      </c>
+      <c r="T36">
+        <v>1.000919313043228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9987654467365579</v>
+      </c>
+      <c r="D37">
+        <v>0.9959415265729484</v>
+      </c>
+      <c r="E37">
+        <v>1.025841880379657</v>
+      </c>
+      <c r="F37">
+        <v>1.001369418336008</v>
+      </c>
+      <c r="G37">
+        <v>1.014946977590071</v>
+      </c>
+      <c r="H37">
+        <v>0.9933879375166086</v>
+      </c>
+      <c r="I37">
+        <v>1.014946977590071</v>
+      </c>
+      <c r="J37">
+        <v>1.025841880379657</v>
+      </c>
+      <c r="K37">
+        <v>1.025841880379657</v>
+      </c>
+      <c r="L37">
+        <v>0.9933879375166086</v>
+      </c>
+      <c r="M37">
+        <v>1.00416745755334</v>
+      </c>
+      <c r="N37">
+        <v>1.00416745755334</v>
+      </c>
+      <c r="O37">
+        <v>1.002366787281079</v>
+      </c>
+      <c r="P37">
+        <v>1.011392265162112</v>
+      </c>
+      <c r="Q37">
+        <v>1.011392265162112</v>
+      </c>
+      <c r="R37">
+        <v>1.015004668966498</v>
+      </c>
+      <c r="S37">
+        <v>1.015004668966498</v>
+      </c>
+      <c r="T37">
+        <v>1.005042197855308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9919991797861717</v>
+      </c>
+      <c r="D38">
+        <v>1.011559881427442</v>
+      </c>
+      <c r="E38">
+        <v>1.167294561285604</v>
+      </c>
+      <c r="F38">
+        <v>1.010045987779417</v>
+      </c>
+      <c r="G38">
+        <v>0.9960134456364863</v>
+      </c>
+      <c r="H38">
+        <v>0.9906176350870359</v>
+      </c>
+      <c r="I38">
+        <v>0.9960134456364863</v>
+      </c>
+      <c r="J38">
+        <v>1.167294561285604</v>
+      </c>
+      <c r="K38">
+        <v>1.167294561285604</v>
+      </c>
+      <c r="L38">
+        <v>0.9906176350870359</v>
+      </c>
+      <c r="M38">
+        <v>0.9933155403617611</v>
+      </c>
+      <c r="N38">
+        <v>0.9933155403617611</v>
+      </c>
+      <c r="O38">
+        <v>0.9928767535032312</v>
+      </c>
+      <c r="P38">
+        <v>1.051308547336375</v>
+      </c>
+      <c r="Q38">
+        <v>1.051308547336375</v>
+      </c>
+      <c r="R38">
+        <v>1.080305050823682</v>
+      </c>
+      <c r="S38">
+        <v>1.080305050823682</v>
+      </c>
+      <c r="T38">
+        <v>1.027921781833693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.98432177168405</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.137110260701301</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.931030321216642</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.041606665407401</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.10889783386282</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.0005705260398</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.10889783386282</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.931030321216642</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.931030321216642</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.0005705260398</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.05473417995131</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.05473417995131</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.031263377195557</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.013499560373087</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.013499560373087</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9928822505839761</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9928822505839761</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.033922896485336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8218732461114902</v>
+      </c>
+      <c r="D40">
+        <v>1.549170860288815</v>
+      </c>
+      <c r="E40">
+        <v>1.092881850299324</v>
+      </c>
+      <c r="F40">
+        <v>1.000829502331519</v>
+      </c>
+      <c r="G40">
+        <v>0.8644069515359211</v>
+      </c>
+      <c r="H40">
+        <v>1.079875206536731</v>
+      </c>
+      <c r="I40">
+        <v>0.8644069515359211</v>
+      </c>
+      <c r="J40">
+        <v>1.092881850299324</v>
+      </c>
+      <c r="K40">
+        <v>1.092881850299324</v>
+      </c>
+      <c r="L40">
+        <v>1.079875206536731</v>
+      </c>
+      <c r="M40">
+        <v>0.9721410790363261</v>
+      </c>
+      <c r="N40">
+        <v>0.9721410790363261</v>
+      </c>
+      <c r="O40">
+        <v>0.9220518013947142</v>
+      </c>
+      <c r="P40">
+        <v>1.012388002790659</v>
+      </c>
+      <c r="Q40">
+        <v>1.012388002790659</v>
+      </c>
+      <c r="R40">
+        <v>1.032511464667825</v>
+      </c>
+      <c r="S40">
+        <v>1.032511464667825</v>
+      </c>
+      <c r="T40">
+        <v>1.068172936183967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9918029789863128</v>
+      </c>
+      <c r="D41">
+        <v>0.8123504131483318</v>
+      </c>
+      <c r="E41">
+        <v>1.100763403630878</v>
+      </c>
+      <c r="F41">
+        <v>1.018336040982033</v>
+      </c>
+      <c r="G41">
+        <v>0.9628773978116921</v>
+      </c>
+      <c r="H41">
+        <v>1.00268244181037</v>
+      </c>
+      <c r="I41">
+        <v>0.9628773978116921</v>
+      </c>
+      <c r="J41">
+        <v>1.100763403630878</v>
+      </c>
+      <c r="K41">
+        <v>1.100763403630878</v>
+      </c>
+      <c r="L41">
+        <v>1.00268244181037</v>
+      </c>
+      <c r="M41">
+        <v>0.982779919811031</v>
+      </c>
+      <c r="N41">
+        <v>0.982779919811031</v>
+      </c>
+      <c r="O41">
+        <v>0.9857876062027916</v>
+      </c>
+      <c r="P41">
+        <v>1.02210774775098</v>
+      </c>
+      <c r="Q41">
+        <v>1.02210774775098</v>
+      </c>
+      <c r="R41">
+        <v>1.041771661720954</v>
+      </c>
+      <c r="S41">
+        <v>1.041771661720954</v>
+      </c>
+      <c r="T41">
+        <v>0.9814687793949362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9785195751664033</v>
+      </c>
+      <c r="D42">
+        <v>1.129663583911522</v>
+      </c>
+      <c r="E42">
+        <v>1.019310500905195</v>
+      </c>
+      <c r="F42">
+        <v>0.9854060944524811</v>
+      </c>
+      <c r="G42">
+        <v>1.05072656777194</v>
+      </c>
+      <c r="H42">
+        <v>1.04898008966371</v>
+      </c>
+      <c r="I42">
+        <v>1.05072656777194</v>
+      </c>
+      <c r="J42">
+        <v>1.019310500905195</v>
+      </c>
+      <c r="K42">
+        <v>1.019310500905195</v>
+      </c>
+      <c r="L42">
+        <v>1.04898008966371</v>
+      </c>
+      <c r="M42">
+        <v>1.049853328717825</v>
+      </c>
+      <c r="N42">
+        <v>1.049853328717825</v>
+      </c>
+      <c r="O42">
+        <v>1.026075410867351</v>
+      </c>
+      <c r="P42">
+        <v>1.039672386113615</v>
+      </c>
+      <c r="Q42">
+        <v>1.039672386113615</v>
+      </c>
+      <c r="R42">
+        <v>1.03458191481151</v>
+      </c>
+      <c r="S42">
+        <v>1.03458191481151</v>
+      </c>
+      <c r="T42">
+        <v>1.035434401978542</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.079406994042215</v>
+        <v>0.9978898306920601</v>
       </c>
       <c r="D3">
-        <v>1.016662507450587</v>
+        <v>1.013111075851285</v>
       </c>
       <c r="E3">
-        <v>1.004068493749714</v>
+        <v>1.015406698916306</v>
       </c>
       <c r="F3">
-        <v>1.079406994042215</v>
+        <v>0.997080579608291</v>
       </c>
       <c r="G3">
-        <v>0.987106713903782</v>
+        <v>1.015882171837377</v>
       </c>
       <c r="H3">
-        <v>1.004613277001391</v>
+        <v>1.003268334949201</v>
       </c>
       <c r="I3">
-        <v>0.9963355806642568</v>
+        <v>1.015882171837377</v>
       </c>
       <c r="J3">
-        <v>1.016662507450587</v>
+        <v>1.015406698916306</v>
       </c>
       <c r="K3">
-        <v>1.079406994042215</v>
+        <v>1.015406698916306</v>
       </c>
       <c r="L3">
-        <v>1.004068493749714</v>
+        <v>1.003268334949201</v>
       </c>
       <c r="M3">
-        <v>1.01036550060015</v>
+        <v>1.009575253393289</v>
       </c>
       <c r="N3">
-        <v>1.01036550060015</v>
+        <v>1.009575253393289</v>
       </c>
       <c r="O3">
-        <v>1.008448092733897</v>
+        <v>1.005680112492879</v>
       </c>
       <c r="P3">
-        <v>1.033379331747505</v>
+        <v>1.011519068567628</v>
       </c>
       <c r="Q3">
-        <v>1.033379331747505</v>
+        <v>1.011519068567628</v>
       </c>
       <c r="R3">
-        <v>1.044886247321183</v>
+        <v>1.012490976154797</v>
       </c>
       <c r="S3">
-        <v>1.044886247321183</v>
+        <v>1.012490976154797</v>
       </c>
       <c r="T3">
-        <v>1.014698927801991</v>
+        <v>1.00710644864242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.160371859739484</v>
+        <v>0.8218732461114902</v>
       </c>
       <c r="D4">
-        <v>1.054270915427416</v>
+        <v>1.549170860288815</v>
       </c>
       <c r="E4">
-        <v>1.005976965117355</v>
+        <v>1.092881850299324</v>
       </c>
       <c r="F4">
-        <v>1.160371859739484</v>
+        <v>1.000829502331519</v>
       </c>
       <c r="G4">
-        <v>0.9920942553586195</v>
+        <v>0.8644069515359211</v>
       </c>
       <c r="H4">
-        <v>1.010683176058719</v>
+        <v>1.079875206536731</v>
       </c>
       <c r="I4">
-        <v>1.002736218995435</v>
+        <v>0.8644069515359211</v>
       </c>
       <c r="J4">
-        <v>1.054270915427416</v>
+        <v>1.092881850299324</v>
       </c>
       <c r="K4">
-        <v>1.160371859739484</v>
+        <v>1.092881850299324</v>
       </c>
       <c r="L4">
-        <v>1.005976965117355</v>
+        <v>1.079875206536731</v>
       </c>
       <c r="M4">
-        <v>1.030123940272385</v>
+        <v>0.9721410790363261</v>
       </c>
       <c r="N4">
-        <v>1.030123940272385</v>
+        <v>0.9721410790363261</v>
       </c>
       <c r="O4">
-        <v>1.023643685534497</v>
+        <v>0.9220518013947142</v>
       </c>
       <c r="P4">
-        <v>1.073539913428085</v>
+        <v>1.012388002790659</v>
       </c>
       <c r="Q4">
-        <v>1.073539913428085</v>
+        <v>1.012388002790659</v>
       </c>
       <c r="R4">
-        <v>1.095247900005935</v>
+        <v>1.032511464667825</v>
       </c>
       <c r="S4">
-        <v>1.095247900005935</v>
+        <v>1.032511464667825</v>
       </c>
       <c r="T4">
-        <v>1.037688898449505</v>
+        <v>1.068172936183967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.402741545515485</v>
+        <v>0.9351824029673559</v>
       </c>
       <c r="D5">
-        <v>1.112170160501387</v>
+        <v>1.500574093186817</v>
       </c>
       <c r="E5">
-        <v>0.9698324934895389</v>
+        <v>0.9217747106555272</v>
       </c>
       <c r="F5">
-        <v>1.402741545515485</v>
+        <v>0.9271478089881818</v>
       </c>
       <c r="G5">
-        <v>1.060653894628253</v>
+        <v>1.658487387020584</v>
       </c>
       <c r="H5">
-        <v>1.049181017871849</v>
+        <v>1.156941638928952</v>
       </c>
       <c r="I5">
-        <v>1.068856539843524</v>
+        <v>1.658487387020584</v>
       </c>
       <c r="J5">
-        <v>1.112170160501387</v>
+        <v>0.9217747106555272</v>
       </c>
       <c r="K5">
-        <v>1.402741545515485</v>
+        <v>0.9217747106555272</v>
       </c>
       <c r="L5">
-        <v>0.9698324934895389</v>
+        <v>1.156941638928952</v>
       </c>
       <c r="M5">
-        <v>1.041001326995463</v>
+        <v>1.407714512974767</v>
       </c>
       <c r="N5">
-        <v>1.041001326995463</v>
+        <v>1.407714512974767</v>
       </c>
       <c r="O5">
-        <v>1.043727890620925</v>
+        <v>1.250203809638964</v>
       </c>
       <c r="P5">
-        <v>1.16158139983547</v>
+        <v>1.245734578868354</v>
       </c>
       <c r="Q5">
-        <v>1.16158139983547</v>
+        <v>1.245734578868354</v>
       </c>
       <c r="R5">
-        <v>1.221871436255474</v>
+        <v>1.164744611815147</v>
       </c>
       <c r="S5">
-        <v>1.221871436255474</v>
+        <v>1.164744611815147</v>
       </c>
       <c r="T5">
-        <v>1.110572608641673</v>
+        <v>1.183351340291236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.966025222229333</v>
+        <v>0.5050698878944563</v>
       </c>
       <c r="D6">
-        <v>1.609971651226886</v>
+        <v>4.57397808460892</v>
       </c>
       <c r="E6">
-        <v>1.232593748626794</v>
+        <v>0.4291439761925664</v>
       </c>
       <c r="F6">
-        <v>1.966025222229333</v>
+        <v>0.5280735945277163</v>
       </c>
       <c r="G6">
-        <v>1.029615087278885</v>
+        <v>5.789312741431431</v>
       </c>
       <c r="H6">
-        <v>1.107888383286156</v>
+        <v>2.107266426346532</v>
       </c>
       <c r="I6">
-        <v>0.9427681915479699</v>
+        <v>5.789312741431431</v>
       </c>
       <c r="J6">
-        <v>1.609971651226886</v>
+        <v>0.4291439761925664</v>
       </c>
       <c r="K6">
-        <v>1.966025222229333</v>
+        <v>0.4291439761925664</v>
       </c>
       <c r="L6">
-        <v>1.232593748626794</v>
+        <v>2.107266426346532</v>
       </c>
       <c r="M6">
-        <v>1.42128269992684</v>
+        <v>3.948289583888982</v>
       </c>
       <c r="N6">
-        <v>1.42128269992684</v>
+        <v>3.948289583888982</v>
       </c>
       <c r="O6">
-        <v>1.316817927713279</v>
+        <v>2.800549685224139</v>
       </c>
       <c r="P6">
-        <v>1.602863540694338</v>
+        <v>2.775241047990177</v>
       </c>
       <c r="Q6">
-        <v>1.602863540694338</v>
+        <v>2.775241047990177</v>
       </c>
       <c r="R6">
-        <v>1.693653961078087</v>
+        <v>2.188716780040774</v>
       </c>
       <c r="S6">
-        <v>1.693653961078087</v>
+        <v>2.188716780040774</v>
       </c>
       <c r="T6">
-        <v>1.314810380699337</v>
+        <v>2.322140785166937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003294710403214</v>
+        <v>1.005187442455897</v>
       </c>
       <c r="D7">
-        <v>1.007691357590837</v>
+        <v>0.9775521920204936</v>
       </c>
       <c r="E7">
-        <v>1.001764930746468</v>
+        <v>1.072411269705083</v>
       </c>
       <c r="F7">
-        <v>1.003294710403214</v>
+        <v>1.002275953246712</v>
       </c>
       <c r="G7">
-        <v>1.006051324090682</v>
+        <v>1.00984222400944</v>
       </c>
       <c r="H7">
-        <v>0.9984820781560049</v>
+        <v>0.9975555909275758</v>
       </c>
       <c r="I7">
-        <v>0.998763588792514</v>
+        <v>1.00984222400944</v>
       </c>
       <c r="J7">
-        <v>1.007691357590837</v>
+        <v>1.072411269705083</v>
       </c>
       <c r="K7">
-        <v>1.003294710403214</v>
+        <v>1.072411269705083</v>
       </c>
       <c r="L7">
-        <v>1.001764930746468</v>
+        <v>0.9975555909275758</v>
       </c>
       <c r="M7">
-        <v>1.004728144168653</v>
+        <v>1.003698907468508</v>
       </c>
       <c r="N7">
-        <v>1.004728144168653</v>
+        <v>1.003698907468508</v>
       </c>
       <c r="O7">
-        <v>1.002646122164437</v>
+        <v>1.004195085797638</v>
       </c>
       <c r="P7">
-        <v>1.004250332913507</v>
+        <v>1.026603028214033</v>
       </c>
       <c r="Q7">
-        <v>1.004250332913507</v>
+        <v>1.026603028214033</v>
       </c>
       <c r="R7">
-        <v>1.004011427285934</v>
+        <v>1.038055088586796</v>
       </c>
       <c r="S7">
-        <v>1.004011427285934</v>
+        <v>1.038055088586796</v>
       </c>
       <c r="T7">
-        <v>1.002674664963287</v>
+        <v>1.010804112060867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.015406698916307</v>
+        <v>0.9987654467365579</v>
       </c>
       <c r="D8">
-        <v>1.015882171837374</v>
+        <v>0.9959415265729484</v>
       </c>
       <c r="E8">
-        <v>1.003268334949201</v>
+        <v>1.025841880379657</v>
       </c>
       <c r="F8">
-        <v>1.015406698916307</v>
+        <v>1.001369418336008</v>
       </c>
       <c r="G8">
-        <v>1.013111075851283</v>
+        <v>1.014946977590071</v>
       </c>
       <c r="H8">
-        <v>0.9978898306920607</v>
+        <v>0.9933879375166086</v>
       </c>
       <c r="I8">
-        <v>0.9970805796082911</v>
+        <v>1.014946977590071</v>
       </c>
       <c r="J8">
-        <v>1.015882171837374</v>
+        <v>1.025841880379657</v>
       </c>
       <c r="K8">
-        <v>1.015406698916307</v>
+        <v>1.025841880379657</v>
       </c>
       <c r="L8">
-        <v>1.003268334949201</v>
+        <v>0.9933879375166086</v>
       </c>
       <c r="M8">
-        <v>1.009575253393288</v>
+        <v>1.00416745755334</v>
       </c>
       <c r="N8">
-        <v>1.009575253393288</v>
+        <v>1.00416745755334</v>
       </c>
       <c r="O8">
-        <v>1.005680112492879</v>
+        <v>1.002366787281079</v>
       </c>
       <c r="P8">
-        <v>1.011519068567627</v>
+        <v>1.011392265162112</v>
       </c>
       <c r="Q8">
-        <v>1.011519068567627</v>
+        <v>1.011392265162112</v>
       </c>
       <c r="R8">
-        <v>1.012490976154797</v>
+        <v>1.015004668966498</v>
       </c>
       <c r="S8">
-        <v>1.012490976154797</v>
+        <v>1.015004668966498</v>
       </c>
       <c r="T8">
-        <v>1.007106448642419</v>
+        <v>1.005042197855308</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.061688897953421</v>
+        <v>1.010683176058719</v>
       </c>
       <c r="D9">
-        <v>1.027549062646087</v>
+        <v>0.9920942553586195</v>
       </c>
       <c r="E9">
-        <v>1.012072610506374</v>
+        <v>1.160371859739484</v>
       </c>
       <c r="F9">
-        <v>1.061688897953421</v>
+        <v>1.002736218995435</v>
       </c>
       <c r="G9">
-        <v>1.015861432873706</v>
+        <v>1.054270915427416</v>
       </c>
       <c r="H9">
-        <v>0.9974358040404516</v>
+        <v>1.005976965117355</v>
       </c>
       <c r="I9">
-        <v>0.9934577362922861</v>
+        <v>1.054270915427416</v>
       </c>
       <c r="J9">
-        <v>1.027549062646087</v>
+        <v>1.160371859739484</v>
       </c>
       <c r="K9">
-        <v>1.061688897953421</v>
+        <v>1.160371859739484</v>
       </c>
       <c r="L9">
-        <v>1.012072610506374</v>
+        <v>1.005976965117355</v>
       </c>
       <c r="M9">
-        <v>1.019810836576231</v>
+        <v>1.030123940272385</v>
       </c>
       <c r="N9">
-        <v>1.019810836576231</v>
+        <v>1.030123940272385</v>
       </c>
       <c r="O9">
-        <v>1.012352492397637</v>
+        <v>1.023643685534497</v>
       </c>
       <c r="P9">
-        <v>1.033770190368627</v>
+        <v>1.073539913428085</v>
       </c>
       <c r="Q9">
-        <v>1.033770190368627</v>
+        <v>1.073539913428085</v>
       </c>
       <c r="R9">
-        <v>1.040749867264826</v>
+        <v>1.095247900005935</v>
       </c>
       <c r="S9">
-        <v>1.040749867264826</v>
+        <v>1.095247900005935</v>
       </c>
       <c r="T9">
-        <v>1.018010924052054</v>
+        <v>1.037688898449505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.077200598532416</v>
+        <v>0.4916487245064646</v>
       </c>
       <c r="D10">
-        <v>1.041943231004773</v>
+        <v>4.658484975085636</v>
       </c>
       <c r="E10">
-        <v>1.012074992291336</v>
+        <v>0.4116498818129478</v>
       </c>
       <c r="F10">
-        <v>1.077200598532416</v>
+        <v>0.5202164719729577</v>
       </c>
       <c r="G10">
-        <v>1.042009453689955</v>
+        <v>5.885560686786111</v>
       </c>
       <c r="H10">
-        <v>0.9928429040132236</v>
+        <v>2.12013794390526</v>
       </c>
       <c r="I10">
-        <v>0.997696575731181</v>
+        <v>5.885560686786111</v>
       </c>
       <c r="J10">
-        <v>1.041943231004773</v>
+        <v>0.4116498818129478</v>
       </c>
       <c r="K10">
-        <v>1.077200598532416</v>
+        <v>0.4116498818129478</v>
       </c>
       <c r="L10">
-        <v>1.012074992291336</v>
+        <v>2.12013794390526</v>
       </c>
       <c r="M10">
-        <v>1.027009111648054</v>
+        <v>4.002849315345685</v>
       </c>
       <c r="N10">
-        <v>1.027009111648054</v>
+        <v>4.002849315345685</v>
       </c>
       <c r="O10">
-        <v>1.015620375769777</v>
+        <v>2.832449118399278</v>
       </c>
       <c r="P10">
-        <v>1.043739607276175</v>
+        <v>2.80578283750144</v>
       </c>
       <c r="Q10">
-        <v>1.043739607276175</v>
+        <v>2.80578283750144</v>
       </c>
       <c r="R10">
-        <v>1.052104855090235</v>
+        <v>2.207249598579317</v>
       </c>
       <c r="S10">
-        <v>1.052104855090235</v>
+        <v>2.207249598579317</v>
       </c>
       <c r="T10">
-        <v>1.027294625877147</v>
+        <v>2.347949780678229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.270270027983209</v>
+        <v>0.8602604723543916</v>
       </c>
       <c r="D11">
-        <v>1.050035266139394</v>
+        <v>1.152123157405084</v>
       </c>
       <c r="E11">
-        <v>1.036048853841804</v>
+        <v>1.13020474944666</v>
       </c>
       <c r="F11">
-        <v>1.270270027983209</v>
+        <v>1.058274316835977</v>
       </c>
       <c r="G11">
-        <v>1.062064750275661</v>
+        <v>0.7773828576724306</v>
       </c>
       <c r="H11">
-        <v>0.9857354605919341</v>
+        <v>1.081988754822035</v>
       </c>
       <c r="I11">
-        <v>0.9800402034394102</v>
+        <v>0.7773828576724306</v>
       </c>
       <c r="J11">
-        <v>1.050035266139394</v>
+        <v>1.13020474944666</v>
       </c>
       <c r="K11">
-        <v>1.270270027983209</v>
+        <v>1.13020474944666</v>
       </c>
       <c r="L11">
-        <v>1.036048853841804</v>
+        <v>1.081988754822035</v>
       </c>
       <c r="M11">
-        <v>1.043042059990599</v>
+        <v>0.9296858062472327</v>
       </c>
       <c r="N11">
-        <v>1.043042059990599</v>
+        <v>0.9296858062472327</v>
       </c>
       <c r="O11">
-        <v>1.023939860191044</v>
+        <v>0.9065440282829523</v>
       </c>
       <c r="P11">
-        <v>1.118784715988135</v>
+        <v>0.9965254539803752</v>
       </c>
       <c r="Q11">
-        <v>1.118784715988136</v>
+        <v>0.9965254539803752</v>
       </c>
       <c r="R11">
-        <v>1.156656043986904</v>
+        <v>1.029945277846946</v>
       </c>
       <c r="S11">
-        <v>1.156656043986904</v>
+        <v>1.029945277846946</v>
       </c>
       <c r="T11">
-        <v>1.064032427045235</v>
+        <v>1.010039051422763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.637772696181906</v>
+        <v>0.8880509013776856</v>
       </c>
       <c r="D12">
-        <v>0.07408384327928993</v>
+        <v>1.793736858008728</v>
       </c>
       <c r="E12">
-        <v>1.031808577725423</v>
+        <v>0.7884101693772803</v>
       </c>
       <c r="F12">
-        <v>1.637772696181906</v>
+        <v>0.8946703838210499</v>
       </c>
       <c r="G12">
-        <v>0.01878657451929509</v>
+        <v>1.952892892237849</v>
       </c>
       <c r="H12">
-        <v>1.294687972337102</v>
+        <v>1.23186484865263</v>
       </c>
       <c r="I12">
-        <v>1.224471727757228</v>
+        <v>1.952892892237849</v>
       </c>
       <c r="J12">
-        <v>0.07408384327928993</v>
+        <v>0.7884101693772803</v>
       </c>
       <c r="K12">
-        <v>1.637772696181906</v>
+        <v>0.7884101693772803</v>
       </c>
       <c r="L12">
-        <v>1.031808577725423</v>
+        <v>1.23186484865263</v>
       </c>
       <c r="M12">
-        <v>0.5529462105023565</v>
+        <v>1.59237887044524</v>
       </c>
       <c r="N12">
-        <v>0.5529462105023565</v>
+        <v>1.59237887044524</v>
       </c>
       <c r="O12">
-        <v>0.8001934644472716</v>
+        <v>1.357602880756055</v>
       </c>
       <c r="P12">
-        <v>0.9145550390622064</v>
+        <v>1.324389303422586</v>
       </c>
       <c r="Q12">
-        <v>0.9145550390622064</v>
+        <v>1.324389303422586</v>
       </c>
       <c r="R12">
-        <v>1.095359453342131</v>
+        <v>1.19039451991126</v>
       </c>
       <c r="S12">
-        <v>1.095359453342131</v>
+        <v>1.19039451991126</v>
       </c>
       <c r="T12">
-        <v>0.8802685653000406</v>
+        <v>1.258271008912537</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9591417196820485</v>
+        <v>0.9709910972782846</v>
       </c>
       <c r="D13">
-        <v>2.033277462835631</v>
+        <v>1.040323805008348</v>
       </c>
       <c r="E13">
-        <v>0.9142597314500862</v>
+        <v>1.042682520347292</v>
       </c>
       <c r="F13">
-        <v>0.9591417196820485</v>
+        <v>1.020732247728775</v>
       </c>
       <c r="G13">
-        <v>1.439684395819204</v>
+        <v>1.011810839627176</v>
       </c>
       <c r="H13">
-        <v>0.7458314991221106</v>
+        <v>0.9435824976250978</v>
       </c>
       <c r="I13">
-        <v>0.9024888776461023</v>
+        <v>1.011810839627176</v>
       </c>
       <c r="J13">
-        <v>2.033277462835631</v>
+        <v>1.042682520347292</v>
       </c>
       <c r="K13">
-        <v>0.9591417196820485</v>
+        <v>1.042682520347292</v>
       </c>
       <c r="L13">
-        <v>0.9142597314500862</v>
+        <v>0.9435824976250978</v>
       </c>
       <c r="M13">
-        <v>1.473768597142858</v>
+        <v>0.9776966686261368</v>
       </c>
       <c r="N13">
-        <v>1.473768597142858</v>
+        <v>0.9776966686261368</v>
       </c>
       <c r="O13">
-        <v>1.231122897802609</v>
+        <v>0.9754614781768528</v>
       </c>
       <c r="P13">
-        <v>1.302226304655922</v>
+        <v>0.9993586191998552</v>
       </c>
       <c r="Q13">
-        <v>1.302226304655922</v>
+        <v>0.9993586191998552</v>
       </c>
       <c r="R13">
-        <v>1.216455158412453</v>
+        <v>1.010189594486715</v>
       </c>
       <c r="S13">
-        <v>1.216455158412453</v>
+        <v>1.010189594486715</v>
       </c>
       <c r="T13">
-        <v>1.165780614425864</v>
+        <v>1.005020501269162</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4575240688298541</v>
+        <v>0.04694283099999997</v>
       </c>
       <c r="D14">
-        <v>1.67335477920264</v>
+        <v>7.800027100000005</v>
       </c>
       <c r="E14">
-        <v>0.7298618612238882</v>
+        <v>-0.0001847261400000003</v>
       </c>
       <c r="F14">
-        <v>0.4575240688298541</v>
+        <v>0.1123328900000001</v>
       </c>
       <c r="G14">
-        <v>1.047283324980464</v>
+        <v>10.135584</v>
       </c>
       <c r="H14">
-        <v>1.40161374224752</v>
+        <v>3.107733099999997</v>
       </c>
       <c r="I14">
-        <v>1.002912250887597</v>
+        <v>10.135584</v>
       </c>
       <c r="J14">
-        <v>1.67335477920264</v>
+        <v>-0.0001847261400000003</v>
       </c>
       <c r="K14">
-        <v>0.4575240688298541</v>
+        <v>-0.0001847261400000003</v>
       </c>
       <c r="L14">
-        <v>0.7298618612238882</v>
+        <v>3.107733099999997</v>
       </c>
       <c r="M14">
-        <v>1.201608320213264</v>
+        <v>6.621658549999997</v>
       </c>
       <c r="N14">
-        <v>1.201608320213264</v>
+        <v>6.621658549999997</v>
       </c>
       <c r="O14">
-        <v>1.268276794224683</v>
+        <v>4.430086643666665</v>
       </c>
       <c r="P14">
-        <v>0.9535802364187943</v>
+        <v>4.414377457953331</v>
       </c>
       <c r="Q14">
-        <v>0.9535802364187943</v>
+        <v>4.414377457953331</v>
       </c>
       <c r="R14">
-        <v>0.8295661945215592</v>
+        <v>3.310736911929998</v>
       </c>
       <c r="S14">
-        <v>0.8295661945215592</v>
+        <v>3.310736911929998</v>
       </c>
       <c r="T14">
-        <v>1.052091671228661</v>
+        <v>3.533739199143333</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7839152245950087</v>
+        <v>0.0025420957</v>
       </c>
       <c r="D15">
-        <v>0.3557094499442442</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="E15">
-        <v>0.8992704960297836</v>
+        <v>30.381976</v>
       </c>
       <c r="F15">
-        <v>0.7839152245950087</v>
+        <v>0.0037430372</v>
       </c>
       <c r="G15">
-        <v>0.5831097785823491</v>
+        <v>0.0030969418</v>
       </c>
       <c r="H15">
-        <v>1.152505170403554</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="I15">
-        <v>0.9405966316423949</v>
+        <v>0.0030969418</v>
       </c>
       <c r="J15">
-        <v>0.3557094499442442</v>
+        <v>30.381976</v>
       </c>
       <c r="K15">
-        <v>0.7839152245950087</v>
+        <v>30.381976</v>
       </c>
       <c r="L15">
-        <v>0.8992704960297836</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M15">
-        <v>0.6274899729870139</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N15">
-        <v>0.6274899729870139</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O15">
-        <v>0.8024950387925273</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P15">
-        <v>0.6796317235230122</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q15">
-        <v>0.6796317235230122</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R15">
-        <v>0.7057025987910113</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S15">
-        <v>0.7057025987910113</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T15">
-        <v>0.7858511251995557</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9890032419192822</v>
+        <v>-0.00084920429</v>
       </c>
       <c r="D16">
-        <v>1.00156137611709</v>
+        <v>9.322335600000001</v>
       </c>
       <c r="E16">
-        <v>1.006238896110204</v>
+        <v>5.0698709</v>
       </c>
       <c r="F16">
-        <v>0.9890032419192822</v>
+        <v>0.19881521</v>
       </c>
       <c r="G16">
-        <v>1.010291171767606</v>
+        <v>0.00058360601</v>
       </c>
       <c r="H16">
-        <v>0.9995377376482744</v>
+        <v>2.6042979</v>
       </c>
       <c r="I16">
-        <v>0.9988834546969119</v>
+        <v>0.00058360601</v>
       </c>
       <c r="J16">
-        <v>1.00156137611709</v>
+        <v>5.0698709</v>
       </c>
       <c r="K16">
-        <v>0.9890032419192822</v>
+        <v>5.0698709</v>
       </c>
       <c r="L16">
-        <v>1.006238896110204</v>
+        <v>2.6042979</v>
       </c>
       <c r="M16">
-        <v>1.003900136113647</v>
+        <v>1.302440753005</v>
       </c>
       <c r="N16">
-        <v>1.003900136113647</v>
+        <v>1.302440753005</v>
       </c>
       <c r="O16">
-        <v>1.002446003291856</v>
+        <v>0.86801076724</v>
       </c>
       <c r="P16">
-        <v>0.9989345047155253</v>
+        <v>2.558250802003334</v>
       </c>
       <c r="Q16">
-        <v>0.9989345047155253</v>
+        <v>2.558250802003334</v>
       </c>
       <c r="R16">
-        <v>0.9964516890164645</v>
+        <v>3.1861558265025</v>
       </c>
       <c r="S16">
-        <v>0.9964516890164645</v>
+        <v>3.1861558265025</v>
       </c>
       <c r="T16">
-        <v>1.000919313043228</v>
+        <v>2.865842335286667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.025841880379658</v>
+        <v>0.022414911</v>
       </c>
       <c r="D17">
-        <v>1.014946977590071</v>
+        <v>3.8787132</v>
       </c>
       <c r="E17">
-        <v>0.993387937516609</v>
+        <v>2.5555451</v>
       </c>
       <c r="F17">
-        <v>1.025841880379658</v>
+        <v>0.14763795</v>
       </c>
       <c r="G17">
-        <v>0.9959415265729487</v>
+        <v>2.3556022</v>
       </c>
       <c r="H17">
-        <v>0.9987654467365579</v>
+        <v>1.4560976</v>
       </c>
       <c r="I17">
-        <v>1.001369418336008</v>
+        <v>2.3556022</v>
       </c>
       <c r="J17">
-        <v>1.014946977590071</v>
+        <v>2.5555451</v>
       </c>
       <c r="K17">
-        <v>1.025841880379658</v>
+        <v>2.5555451</v>
       </c>
       <c r="L17">
-        <v>0.993387937516609</v>
+        <v>1.4560976</v>
       </c>
       <c r="M17">
-        <v>1.00416745755334</v>
+        <v>1.9058499</v>
       </c>
       <c r="N17">
-        <v>1.00416745755334</v>
+        <v>1.9058499</v>
       </c>
       <c r="O17">
-        <v>1.002366787281079</v>
+        <v>1.278038237</v>
       </c>
       <c r="P17">
-        <v>1.011392265162113</v>
+        <v>2.122414966666667</v>
       </c>
       <c r="Q17">
-        <v>1.011392265162113</v>
+        <v>2.122414966666667</v>
       </c>
       <c r="R17">
-        <v>1.015004668966499</v>
+        <v>2.2306975</v>
       </c>
       <c r="S17">
-        <v>1.015004668966499</v>
+        <v>2.2306975</v>
       </c>
       <c r="T17">
-        <v>1.005042197855309</v>
+        <v>1.736001826833333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.167294561285602</v>
+        <v>1.117762278646576</v>
       </c>
       <c r="D18">
-        <v>0.9960134456364863</v>
+        <v>0.5442945388769862</v>
       </c>
       <c r="E18">
-        <v>0.9906176350870366</v>
+        <v>3.116592506772493</v>
       </c>
       <c r="F18">
-        <v>1.167294561285602</v>
+        <v>1.004621909967123</v>
       </c>
       <c r="G18">
-        <v>1.011559881427443</v>
+        <v>1.222020527786027</v>
       </c>
       <c r="H18">
-        <v>0.9919991797861716</v>
+        <v>0.941823580430685</v>
       </c>
       <c r="I18">
-        <v>1.010045987779416</v>
+        <v>1.222020527786027</v>
       </c>
       <c r="J18">
-        <v>0.9960134456364863</v>
+        <v>3.116592506772493</v>
       </c>
       <c r="K18">
-        <v>1.167294561285602</v>
+        <v>3.116592506772493</v>
       </c>
       <c r="L18">
-        <v>0.9906176350870366</v>
+        <v>0.941823580430685</v>
       </c>
       <c r="M18">
-        <v>0.9933155403617615</v>
+        <v>1.081922054108356</v>
       </c>
       <c r="N18">
-        <v>0.9933155403617615</v>
+        <v>1.081922054108356</v>
       </c>
       <c r="O18">
-        <v>0.9928767535032316</v>
+        <v>1.093868795621096</v>
       </c>
       <c r="P18">
-        <v>1.051308547336375</v>
+        <v>1.760145538329735</v>
       </c>
       <c r="Q18">
-        <v>1.051308547336375</v>
+        <v>1.760145538329735</v>
       </c>
       <c r="R18">
-        <v>1.080305050823682</v>
+        <v>2.099257280440424</v>
       </c>
       <c r="S18">
-        <v>1.080305050823682</v>
+        <v>2.099257280440424</v>
       </c>
       <c r="T18">
-        <v>1.027921781833693</v>
+        <v>1.324519223746649</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.931030321216642</v>
+        <v>0.03324863567105264</v>
       </c>
       <c r="D19">
-        <v>1.10889783386282</v>
+        <v>5.560112863157896</v>
       </c>
       <c r="E19">
-        <v>1.0005705260398</v>
+        <v>1.837908985187369</v>
       </c>
       <c r="F19">
-        <v>0.931030321216642</v>
+        <v>0.1351234507894737</v>
       </c>
       <c r="G19">
-        <v>1.137110260701301</v>
+        <v>3.673680562123157</v>
       </c>
       <c r="H19">
-        <v>0.98432177168405</v>
+        <v>1.855586412105263</v>
       </c>
       <c r="I19">
-        <v>1.041606665407401</v>
+        <v>3.673680562123157</v>
       </c>
       <c r="J19">
-        <v>1.10889783386282</v>
+        <v>1.837908985187369</v>
       </c>
       <c r="K19">
-        <v>0.931030321216642</v>
+        <v>1.837908985187369</v>
       </c>
       <c r="L19">
-        <v>1.0005705260398</v>
+        <v>1.855586412105263</v>
       </c>
       <c r="M19">
-        <v>1.05473417995131</v>
+        <v>2.76463348711421</v>
       </c>
       <c r="N19">
-        <v>1.05473417995131</v>
+        <v>2.76463348711421</v>
       </c>
       <c r="O19">
-        <v>1.031263377195557</v>
+        <v>1.854171869966491</v>
       </c>
       <c r="P19">
-        <v>1.013499560373087</v>
+        <v>2.455725319805263</v>
       </c>
       <c r="Q19">
-        <v>1.013499560373087</v>
+        <v>2.455725319805263</v>
       </c>
       <c r="R19">
-        <v>0.9928822505839761</v>
+        <v>2.301271236150789</v>
       </c>
       <c r="S19">
-        <v>0.9928822505839761</v>
+        <v>2.301271236150789</v>
       </c>
       <c r="T19">
-        <v>1.033922896485336</v>
+        <v>2.182610151505702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.3158065737710526</v>
+      </c>
+      <c r="D20">
+        <v>1.585693981274684</v>
+      </c>
+      <c r="E20">
+        <v>3.289981587202105</v>
+      </c>
+      <c r="F20">
+        <v>1.201020608905263</v>
+      </c>
+      <c r="G20">
+        <v>0.8353072804726313</v>
+      </c>
+      <c r="H20">
+        <v>1.217564790515526</v>
+      </c>
+      <c r="I20">
+        <v>0.8353072804726313</v>
+      </c>
+      <c r="J20">
+        <v>3.289981587202105</v>
+      </c>
+      <c r="K20">
+        <v>3.289981587202105</v>
+      </c>
+      <c r="L20">
+        <v>1.217564790515526</v>
+      </c>
+      <c r="M20">
+        <v>1.026436035494079</v>
+      </c>
+      <c r="N20">
+        <v>1.026436035494079</v>
+      </c>
+      <c r="O20">
+        <v>0.7895595482530701</v>
+      </c>
+      <c r="P20">
+        <v>1.780951219396754</v>
+      </c>
+      <c r="Q20">
+        <v>1.780951219396754</v>
+      </c>
+      <c r="R20">
+        <v>2.158208811348092</v>
+      </c>
+      <c r="S20">
+        <v>2.158208811348092</v>
+      </c>
+      <c r="T20">
+        <v>1.407562470356877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.40161374224752</v>
+      </c>
+      <c r="D21">
+        <v>1.047283324980464</v>
+      </c>
+      <c r="E21">
+        <v>0.4575240688298542</v>
+      </c>
+      <c r="F21">
+        <v>1.002912250887597</v>
+      </c>
+      <c r="G21">
+        <v>1.67335477920264</v>
+      </c>
+      <c r="H21">
+        <v>0.7298618612238877</v>
+      </c>
+      <c r="I21">
+        <v>1.67335477920264</v>
+      </c>
+      <c r="J21">
+        <v>0.4575240688298542</v>
+      </c>
+      <c r="K21">
+        <v>0.4575240688298542</v>
+      </c>
+      <c r="L21">
+        <v>0.7298618612238877</v>
+      </c>
+      <c r="M21">
+        <v>1.201608320213264</v>
+      </c>
+      <c r="N21">
+        <v>1.201608320213264</v>
+      </c>
+      <c r="O21">
+        <v>1.268276794224683</v>
+      </c>
+      <c r="P21">
+        <v>0.9535802364187941</v>
+      </c>
+      <c r="Q21">
+        <v>0.9535802364187941</v>
+      </c>
+      <c r="R21">
+        <v>0.8295661945215591</v>
+      </c>
+      <c r="S21">
+        <v>0.8295661945215591</v>
+      </c>
+      <c r="T21">
+        <v>1.052091671228661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.152505170403554</v>
+      </c>
+      <c r="D22">
+        <v>0.583109778582349</v>
+      </c>
+      <c r="E22">
+        <v>0.7839152245950087</v>
+      </c>
+      <c r="F22">
+        <v>0.9405966316423949</v>
+      </c>
+      <c r="G22">
+        <v>0.3557094499442442</v>
+      </c>
+      <c r="H22">
+        <v>0.8992704960297836</v>
+      </c>
+      <c r="I22">
+        <v>0.3557094499442442</v>
+      </c>
+      <c r="J22">
+        <v>0.7839152245950087</v>
+      </c>
+      <c r="K22">
+        <v>0.7839152245950087</v>
+      </c>
+      <c r="L22">
+        <v>0.8992704960297836</v>
+      </c>
+      <c r="M22">
+        <v>0.6274899729870139</v>
+      </c>
+      <c r="N22">
+        <v>0.6274899729870139</v>
+      </c>
+      <c r="O22">
+        <v>0.8024950387925273</v>
+      </c>
+      <c r="P22">
+        <v>0.6796317235230122</v>
+      </c>
+      <c r="Q22">
+        <v>0.6796317235230122</v>
+      </c>
+      <c r="R22">
+        <v>0.7057025987910113</v>
+      </c>
+      <c r="S22">
+        <v>0.7057025987910113</v>
+      </c>
+      <c r="T22">
+        <v>0.7858511251995557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.294687972337101</v>
+      </c>
+      <c r="D23">
+        <v>0.01878657451929507</v>
+      </c>
+      <c r="E23">
+        <v>1.637772696181906</v>
+      </c>
+      <c r="F23">
+        <v>1.224471727757228</v>
+      </c>
+      <c r="G23">
+        <v>0.07408384327928993</v>
+      </c>
+      <c r="H23">
+        <v>1.031808577725423</v>
+      </c>
+      <c r="I23">
+        <v>0.07408384327928993</v>
+      </c>
+      <c r="J23">
+        <v>1.637772696181906</v>
+      </c>
+      <c r="K23">
+        <v>1.637772696181906</v>
+      </c>
+      <c r="L23">
+        <v>1.031808577725423</v>
+      </c>
+      <c r="M23">
+        <v>0.5529462105023566</v>
+      </c>
+      <c r="N23">
+        <v>0.5529462105023566</v>
+      </c>
+      <c r="O23">
+        <v>0.8001934644472715</v>
+      </c>
+      <c r="P23">
+        <v>0.9145550390622065</v>
+      </c>
+      <c r="Q23">
+        <v>0.9145550390622065</v>
+      </c>
+      <c r="R23">
+        <v>1.095359453342132</v>
+      </c>
+      <c r="S23">
+        <v>1.095359453342132</v>
+      </c>
+      <c r="T23">
+        <v>0.8802685653000406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7458314991221103</v>
+      </c>
+      <c r="D24">
+        <v>1.439684395819204</v>
+      </c>
+      <c r="E24">
+        <v>0.9591417196820489</v>
+      </c>
+      <c r="F24">
+        <v>0.9024888776461023</v>
+      </c>
+      <c r="G24">
+        <v>2.033277462835631</v>
+      </c>
+      <c r="H24">
+        <v>0.9142597314500865</v>
+      </c>
+      <c r="I24">
+        <v>2.033277462835631</v>
+      </c>
+      <c r="J24">
+        <v>0.9591417196820489</v>
+      </c>
+      <c r="K24">
+        <v>0.9591417196820489</v>
+      </c>
+      <c r="L24">
+        <v>0.9142597314500865</v>
+      </c>
+      <c r="M24">
+        <v>1.473768597142859</v>
+      </c>
+      <c r="N24">
+        <v>1.473768597142859</v>
+      </c>
+      <c r="O24">
+        <v>1.231122897802609</v>
+      </c>
+      <c r="P24">
+        <v>1.302226304655922</v>
+      </c>
+      <c r="Q24">
+        <v>1.302226304655922</v>
+      </c>
+      <c r="R24">
+        <v>1.216455158412454</v>
+      </c>
+      <c r="S24">
+        <v>1.216455158412454</v>
+      </c>
+      <c r="T24">
+        <v>1.165780614425864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.5092091986508437</v>
+      </c>
+      <c r="D25">
+        <v>0.3011995829182816</v>
+      </c>
+      <c r="E25">
+        <v>2.187601217675893</v>
+      </c>
+      <c r="F25">
+        <v>1.312678487094464</v>
+      </c>
+      <c r="G25">
+        <v>0.002024000857872225</v>
+      </c>
+      <c r="H25">
+        <v>0.5081495437570238</v>
+      </c>
+      <c r="I25">
+        <v>0.002024000857872225</v>
+      </c>
+      <c r="J25">
+        <v>2.187601217675893</v>
+      </c>
+      <c r="K25">
+        <v>2.187601217675893</v>
+      </c>
+      <c r="L25">
+        <v>0.5081495437570238</v>
+      </c>
+      <c r="M25">
+        <v>0.255086772307448</v>
+      </c>
+      <c r="N25">
+        <v>0.255086772307448</v>
+      </c>
+      <c r="O25">
+        <v>0.3397942477552466</v>
+      </c>
+      <c r="P25">
+        <v>0.8992582540969298</v>
+      </c>
+      <c r="Q25">
+        <v>0.8992582540969297</v>
+      </c>
+      <c r="R25">
+        <v>1.22134399499167</v>
+      </c>
+      <c r="S25">
+        <v>1.22134399499167</v>
+      </c>
+      <c r="T25">
+        <v>0.8034770051590631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.128767366034327</v>
+      </c>
+      <c r="D26">
+        <v>1.417972913815977</v>
+      </c>
+      <c r="E26">
+        <v>0.5177386207423731</v>
+      </c>
+      <c r="F26">
+        <v>0.9972871427083966</v>
+      </c>
+      <c r="G26">
+        <v>0.6367984802745411</v>
+      </c>
+      <c r="H26">
+        <v>1.431893376983158</v>
+      </c>
+      <c r="I26">
+        <v>0.6367984802745411</v>
+      </c>
+      <c r="J26">
+        <v>0.5177386207423731</v>
+      </c>
+      <c r="K26">
+        <v>0.5177386207423731</v>
+      </c>
+      <c r="L26">
+        <v>1.431893376983158</v>
+      </c>
+      <c r="M26">
+        <v>1.034345928628849</v>
+      </c>
+      <c r="N26">
+        <v>1.034345928628849</v>
+      </c>
+      <c r="O26">
+        <v>1.065819741097342</v>
+      </c>
+      <c r="P26">
+        <v>0.8621434926666907</v>
+      </c>
+      <c r="Q26">
+        <v>0.8621434926666907</v>
+      </c>
+      <c r="R26">
+        <v>0.7760422746856113</v>
+      </c>
+      <c r="S26">
+        <v>0.7760422746856113</v>
+      </c>
+      <c r="T26">
+        <v>1.021742983426462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.047391479426969</v>
+      </c>
+      <c r="D27">
+        <v>1.896597621393882</v>
+      </c>
+      <c r="E27">
+        <v>1.388929878621983</v>
+      </c>
+      <c r="F27">
+        <v>0.9090687929804319</v>
+      </c>
+      <c r="G27">
+        <v>2.530150398996077</v>
+      </c>
+      <c r="H27">
+        <v>1.003987613274171</v>
+      </c>
+      <c r="I27">
+        <v>2.530150398996077</v>
+      </c>
+      <c r="J27">
+        <v>1.388929878621983</v>
+      </c>
+      <c r="K27">
+        <v>1.388929878621983</v>
+      </c>
+      <c r="L27">
+        <v>1.003987613274171</v>
+      </c>
+      <c r="M27">
+        <v>1.767069006135124</v>
+      </c>
+      <c r="N27">
+        <v>1.767069006135124</v>
+      </c>
+      <c r="O27">
+        <v>1.527176497232406</v>
+      </c>
+      <c r="P27">
+        <v>1.641022630297411</v>
+      </c>
+      <c r="Q27">
+        <v>1.641022630297411</v>
+      </c>
+      <c r="R27">
+        <v>1.577999442378554</v>
+      </c>
+      <c r="S27">
+        <v>1.577999442378554</v>
+      </c>
+      <c r="T27">
+        <v>1.462687630782252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8793751700996024</v>
+      </c>
+      <c r="D28">
+        <v>1.067033897560462</v>
+      </c>
+      <c r="E28">
+        <v>1.37447820017507</v>
+      </c>
+      <c r="F28">
+        <v>1.15678531690328</v>
+      </c>
+      <c r="G28">
+        <v>1.738011385969793</v>
+      </c>
+      <c r="H28">
+        <v>1.150025021868387</v>
+      </c>
+      <c r="I28">
+        <v>1.738011385969793</v>
+      </c>
+      <c r="J28">
+        <v>1.37447820017507</v>
+      </c>
+      <c r="K28">
+        <v>1.37447820017507</v>
+      </c>
+      <c r="L28">
+        <v>1.150025021868387</v>
+      </c>
+      <c r="M28">
+        <v>1.44401820391909</v>
+      </c>
+      <c r="N28">
+        <v>1.44401820391909</v>
+      </c>
+      <c r="O28">
+        <v>1.255803859312594</v>
+      </c>
+      <c r="P28">
+        <v>1.420838202671083</v>
+      </c>
+      <c r="Q28">
+        <v>1.420838202671083</v>
+      </c>
+      <c r="R28">
+        <v>1.40924820204708</v>
+      </c>
+      <c r="S28">
+        <v>1.40924820204708</v>
+      </c>
+      <c r="T28">
+        <v>1.227618165429432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.050949694634771</v>
+      </c>
+      <c r="D29">
+        <v>1.832563452799362</v>
+      </c>
+      <c r="E29">
+        <v>2.480655347009983</v>
+      </c>
+      <c r="F29">
+        <v>0.7300691062471077</v>
+      </c>
+      <c r="G29">
+        <v>2.573549787096304</v>
+      </c>
+      <c r="H29">
+        <v>1.082863355622839</v>
+      </c>
+      <c r="I29">
+        <v>2.573549787096304</v>
+      </c>
+      <c r="J29">
+        <v>2.480655347009983</v>
+      </c>
+      <c r="K29">
+        <v>2.480655347009983</v>
+      </c>
+      <c r="L29">
+        <v>1.082863355622839</v>
+      </c>
+      <c r="M29">
+        <v>1.828206571359571</v>
+      </c>
+      <c r="N29">
+        <v>1.828206571359571</v>
+      </c>
+      <c r="O29">
+        <v>1.569120945784638</v>
+      </c>
+      <c r="P29">
+        <v>2.045689496576375</v>
+      </c>
+      <c r="Q29">
+        <v>2.045689496576375</v>
+      </c>
+      <c r="R29">
+        <v>2.154430959184777</v>
+      </c>
+      <c r="S29">
+        <v>2.154430959184777</v>
+      </c>
+      <c r="T29">
+        <v>1.625108457235061</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8218732461114902</v>
+        <v>0.9679629460342302</v>
       </c>
       <c r="D4">
-        <v>1.549170860288815</v>
+        <v>1.363949180737476</v>
       </c>
       <c r="E4">
-        <v>1.092881850299324</v>
+        <v>0.8252617200335844</v>
       </c>
       <c r="F4">
-        <v>1.000829502331519</v>
+        <v>0.944035815668821</v>
       </c>
       <c r="G4">
-        <v>0.8644069515359211</v>
+        <v>1.467155121883767</v>
       </c>
       <c r="H4">
-        <v>1.079875206536731</v>
+        <v>1.115816735080138</v>
       </c>
       <c r="I4">
-        <v>0.8644069515359211</v>
+        <v>1.467155121883767</v>
       </c>
       <c r="J4">
-        <v>1.092881850299324</v>
+        <v>0.8252617200335844</v>
       </c>
       <c r="K4">
-        <v>1.092881850299324</v>
+        <v>0.8252617200335844</v>
       </c>
       <c r="L4">
-        <v>1.079875206536731</v>
+        <v>1.115816735080138</v>
       </c>
       <c r="M4">
-        <v>0.9721410790363261</v>
+        <v>1.291485928481953</v>
       </c>
       <c r="N4">
-        <v>0.9721410790363261</v>
+        <v>1.291485928481953</v>
       </c>
       <c r="O4">
-        <v>0.9220518013947142</v>
+        <v>1.183644934332712</v>
       </c>
       <c r="P4">
-        <v>1.012388002790659</v>
+        <v>1.136077858999163</v>
       </c>
       <c r="Q4">
-        <v>1.012388002790659</v>
+        <v>1.136077858999163</v>
       </c>
       <c r="R4">
-        <v>1.032511464667825</v>
+        <v>1.058373824257768</v>
       </c>
       <c r="S4">
-        <v>1.032511464667825</v>
+        <v>1.058373824257768</v>
       </c>
       <c r="T4">
-        <v>1.068172936183967</v>
+        <v>1.11403025323967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9351824029673559</v>
+        <v>0.3344635662596602</v>
       </c>
       <c r="D5">
-        <v>1.500574093186817</v>
+        <v>1.230240549775115</v>
       </c>
       <c r="E5">
-        <v>0.9217747106555272</v>
+        <v>2.884660739830796</v>
       </c>
       <c r="F5">
-        <v>0.9271478089881818</v>
+        <v>1.304886867920581</v>
       </c>
       <c r="G5">
-        <v>1.658487387020584</v>
+        <v>0.2429970225003407</v>
       </c>
       <c r="H5">
-        <v>1.156941638928952</v>
+        <v>1.137638030994061</v>
       </c>
       <c r="I5">
-        <v>1.658487387020584</v>
+        <v>0.2429970225003407</v>
       </c>
       <c r="J5">
-        <v>0.9217747106555272</v>
+        <v>2.884660739830796</v>
       </c>
       <c r="K5">
-        <v>0.9217747106555272</v>
+        <v>2.884660739830796</v>
       </c>
       <c r="L5">
-        <v>1.156941638928952</v>
+        <v>1.137638030994061</v>
       </c>
       <c r="M5">
-        <v>1.407714512974767</v>
+        <v>0.690317526747201</v>
       </c>
       <c r="N5">
-        <v>1.407714512974767</v>
+        <v>0.690317526747201</v>
       </c>
       <c r="O5">
-        <v>1.250203809638964</v>
+        <v>0.5716995399180208</v>
       </c>
       <c r="P5">
-        <v>1.245734578868354</v>
+        <v>1.421765264441732</v>
       </c>
       <c r="Q5">
-        <v>1.245734578868354</v>
+        <v>1.421765264441732</v>
       </c>
       <c r="R5">
-        <v>1.164744611815147</v>
+        <v>1.787489133288998</v>
       </c>
       <c r="S5">
-        <v>1.164744611815147</v>
+        <v>1.787489133288998</v>
       </c>
       <c r="T5">
-        <v>1.183351340291236</v>
+        <v>1.189147796213425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5050698878944563</v>
+        <v>0.8218732461114902</v>
       </c>
       <c r="D6">
-        <v>4.57397808460892</v>
+        <v>1.549170860288815</v>
       </c>
       <c r="E6">
-        <v>0.4291439761925664</v>
+        <v>1.092881850299324</v>
       </c>
       <c r="F6">
-        <v>0.5280735945277163</v>
+        <v>1.000829502331519</v>
       </c>
       <c r="G6">
-        <v>5.789312741431431</v>
+        <v>0.8644069515359211</v>
       </c>
       <c r="H6">
-        <v>2.107266426346532</v>
+        <v>1.079875206536731</v>
       </c>
       <c r="I6">
-        <v>5.789312741431431</v>
+        <v>0.8644069515359211</v>
       </c>
       <c r="J6">
-        <v>0.4291439761925664</v>
+        <v>1.092881850299324</v>
       </c>
       <c r="K6">
-        <v>0.4291439761925664</v>
+        <v>1.092881850299324</v>
       </c>
       <c r="L6">
-        <v>2.107266426346532</v>
+        <v>1.079875206536731</v>
       </c>
       <c r="M6">
-        <v>3.948289583888982</v>
+        <v>0.9721410790363261</v>
       </c>
       <c r="N6">
-        <v>3.948289583888982</v>
+        <v>0.9721410790363261</v>
       </c>
       <c r="O6">
-        <v>2.800549685224139</v>
+        <v>0.9220518013947142</v>
       </c>
       <c r="P6">
-        <v>2.775241047990177</v>
+        <v>1.012388002790659</v>
       </c>
       <c r="Q6">
-        <v>2.775241047990177</v>
+        <v>1.012388002790659</v>
       </c>
       <c r="R6">
-        <v>2.188716780040774</v>
+        <v>1.032511464667825</v>
       </c>
       <c r="S6">
-        <v>2.188716780040774</v>
+        <v>1.032511464667825</v>
       </c>
       <c r="T6">
-        <v>2.322140785166937</v>
+        <v>1.068172936183967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.005187442455897</v>
+        <v>0.9351824029673559</v>
       </c>
       <c r="D7">
-        <v>0.9775521920204936</v>
+        <v>1.500574093186817</v>
       </c>
       <c r="E7">
-        <v>1.072411269705083</v>
+        <v>0.9217747106555272</v>
       </c>
       <c r="F7">
-        <v>1.002275953246712</v>
+        <v>0.9271478089881818</v>
       </c>
       <c r="G7">
-        <v>1.00984222400944</v>
+        <v>1.658487387020584</v>
       </c>
       <c r="H7">
-        <v>0.9975555909275758</v>
+        <v>1.156941638928952</v>
       </c>
       <c r="I7">
-        <v>1.00984222400944</v>
+        <v>1.658487387020584</v>
       </c>
       <c r="J7">
-        <v>1.072411269705083</v>
+        <v>0.9217747106555272</v>
       </c>
       <c r="K7">
-        <v>1.072411269705083</v>
+        <v>0.9217747106555272</v>
       </c>
       <c r="L7">
-        <v>0.9975555909275758</v>
+        <v>1.156941638928952</v>
       </c>
       <c r="M7">
-        <v>1.003698907468508</v>
+        <v>1.407714512974767</v>
       </c>
       <c r="N7">
-        <v>1.003698907468508</v>
+        <v>1.407714512974767</v>
       </c>
       <c r="O7">
-        <v>1.004195085797638</v>
+        <v>1.250203809638964</v>
       </c>
       <c r="P7">
-        <v>1.026603028214033</v>
+        <v>1.245734578868354</v>
       </c>
       <c r="Q7">
-        <v>1.026603028214033</v>
+        <v>1.245734578868354</v>
       </c>
       <c r="R7">
-        <v>1.038055088586796</v>
+        <v>1.164744611815147</v>
       </c>
       <c r="S7">
-        <v>1.038055088586796</v>
+        <v>1.164744611815147</v>
       </c>
       <c r="T7">
-        <v>1.010804112060867</v>
+        <v>1.183351340291236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9987654467365579</v>
+        <v>0.5050698878944563</v>
       </c>
       <c r="D8">
-        <v>0.9959415265729484</v>
+        <v>4.57397808460892</v>
       </c>
       <c r="E8">
-        <v>1.025841880379657</v>
+        <v>0.4291439761925664</v>
       </c>
       <c r="F8">
-        <v>1.001369418336008</v>
+        <v>0.5280735945277163</v>
       </c>
       <c r="G8">
-        <v>1.014946977590071</v>
+        <v>5.789312741431431</v>
       </c>
       <c r="H8">
-        <v>0.9933879375166086</v>
+        <v>2.107266426346532</v>
       </c>
       <c r="I8">
-        <v>1.014946977590071</v>
+        <v>5.789312741431431</v>
       </c>
       <c r="J8">
-        <v>1.025841880379657</v>
+        <v>0.4291439761925664</v>
       </c>
       <c r="K8">
-        <v>1.025841880379657</v>
+        <v>0.4291439761925664</v>
       </c>
       <c r="L8">
-        <v>0.9933879375166086</v>
+        <v>2.107266426346532</v>
       </c>
       <c r="M8">
-        <v>1.00416745755334</v>
+        <v>3.948289583888982</v>
       </c>
       <c r="N8">
-        <v>1.00416745755334</v>
+        <v>3.948289583888982</v>
       </c>
       <c r="O8">
-        <v>1.002366787281079</v>
+        <v>2.800549685224139</v>
       </c>
       <c r="P8">
-        <v>1.011392265162112</v>
+        <v>2.775241047990177</v>
       </c>
       <c r="Q8">
-        <v>1.011392265162112</v>
+        <v>2.775241047990177</v>
       </c>
       <c r="R8">
-        <v>1.015004668966498</v>
+        <v>2.188716780040774</v>
       </c>
       <c r="S8">
-        <v>1.015004668966498</v>
+        <v>2.188716780040774</v>
       </c>
       <c r="T8">
-        <v>1.005042197855308</v>
+        <v>2.322140785166937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.010683176058719</v>
+        <v>1.005187442455897</v>
       </c>
       <c r="D9">
-        <v>0.9920942553586195</v>
+        <v>0.9775521920204936</v>
       </c>
       <c r="E9">
-        <v>1.160371859739484</v>
+        <v>1.072411269705083</v>
       </c>
       <c r="F9">
-        <v>1.002736218995435</v>
+        <v>1.002275953246712</v>
       </c>
       <c r="G9">
-        <v>1.054270915427416</v>
+        <v>1.00984222400944</v>
       </c>
       <c r="H9">
-        <v>1.005976965117355</v>
+        <v>0.9975555909275758</v>
       </c>
       <c r="I9">
-        <v>1.054270915427416</v>
+        <v>1.00984222400944</v>
       </c>
       <c r="J9">
-        <v>1.160371859739484</v>
+        <v>1.072411269705083</v>
       </c>
       <c r="K9">
-        <v>1.160371859739484</v>
+        <v>1.072411269705083</v>
       </c>
       <c r="L9">
-        <v>1.005976965117355</v>
+        <v>0.9975555909275758</v>
       </c>
       <c r="M9">
-        <v>1.030123940272385</v>
+        <v>1.003698907468508</v>
       </c>
       <c r="N9">
-        <v>1.030123940272385</v>
+        <v>1.003698907468508</v>
       </c>
       <c r="O9">
-        <v>1.023643685534497</v>
+        <v>1.004195085797638</v>
       </c>
       <c r="P9">
-        <v>1.073539913428085</v>
+        <v>1.026603028214033</v>
       </c>
       <c r="Q9">
-        <v>1.073539913428085</v>
+        <v>1.026603028214033</v>
       </c>
       <c r="R9">
-        <v>1.095247900005935</v>
+        <v>1.038055088586796</v>
       </c>
       <c r="S9">
-        <v>1.095247900005935</v>
+        <v>1.038055088586796</v>
       </c>
       <c r="T9">
-        <v>1.037688898449505</v>
+        <v>1.010804112060867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4916487245064646</v>
+        <v>0.9987654467365579</v>
       </c>
       <c r="D10">
-        <v>4.658484975085636</v>
+        <v>0.9959415265729484</v>
       </c>
       <c r="E10">
-        <v>0.4116498818129478</v>
+        <v>1.025841880379657</v>
       </c>
       <c r="F10">
-        <v>0.5202164719729577</v>
+        <v>1.001369418336008</v>
       </c>
       <c r="G10">
-        <v>5.885560686786111</v>
+        <v>1.014946977590071</v>
       </c>
       <c r="H10">
-        <v>2.12013794390526</v>
+        <v>0.9933879375166086</v>
       </c>
       <c r="I10">
-        <v>5.885560686786111</v>
+        <v>1.014946977590071</v>
       </c>
       <c r="J10">
-        <v>0.4116498818129478</v>
+        <v>1.025841880379657</v>
       </c>
       <c r="K10">
-        <v>0.4116498818129478</v>
+        <v>1.025841880379657</v>
       </c>
       <c r="L10">
-        <v>2.12013794390526</v>
+        <v>0.9933879375166086</v>
       </c>
       <c r="M10">
-        <v>4.002849315345685</v>
+        <v>1.00416745755334</v>
       </c>
       <c r="N10">
-        <v>4.002849315345685</v>
+        <v>1.00416745755334</v>
       </c>
       <c r="O10">
-        <v>2.832449118399278</v>
+        <v>1.002366787281079</v>
       </c>
       <c r="P10">
-        <v>2.80578283750144</v>
+        <v>1.011392265162112</v>
       </c>
       <c r="Q10">
-        <v>2.80578283750144</v>
+        <v>1.011392265162112</v>
       </c>
       <c r="R10">
-        <v>2.207249598579317</v>
+        <v>1.015004668966498</v>
       </c>
       <c r="S10">
-        <v>2.207249598579317</v>
+        <v>1.015004668966498</v>
       </c>
       <c r="T10">
-        <v>2.347949780678229</v>
+        <v>1.005042197855308</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8602604723543916</v>
+        <v>1.010683176058719</v>
       </c>
       <c r="D11">
-        <v>1.152123157405084</v>
+        <v>0.9920942553586195</v>
       </c>
       <c r="E11">
-        <v>1.13020474944666</v>
+        <v>1.160371859739484</v>
       </c>
       <c r="F11">
-        <v>1.058274316835977</v>
+        <v>1.002736218995435</v>
       </c>
       <c r="G11">
-        <v>0.7773828576724306</v>
+        <v>1.054270915427416</v>
       </c>
       <c r="H11">
-        <v>1.081988754822035</v>
+        <v>1.005976965117355</v>
       </c>
       <c r="I11">
-        <v>0.7773828576724306</v>
+        <v>1.054270915427416</v>
       </c>
       <c r="J11">
-        <v>1.13020474944666</v>
+        <v>1.160371859739484</v>
       </c>
       <c r="K11">
-        <v>1.13020474944666</v>
+        <v>1.160371859739484</v>
       </c>
       <c r="L11">
-        <v>1.081988754822035</v>
+        <v>1.005976965117355</v>
       </c>
       <c r="M11">
-        <v>0.9296858062472327</v>
+        <v>1.030123940272385</v>
       </c>
       <c r="N11">
-        <v>0.9296858062472327</v>
+        <v>1.030123940272385</v>
       </c>
       <c r="O11">
-        <v>0.9065440282829523</v>
+        <v>1.023643685534497</v>
       </c>
       <c r="P11">
-        <v>0.9965254539803752</v>
+        <v>1.073539913428085</v>
       </c>
       <c r="Q11">
-        <v>0.9965254539803752</v>
+        <v>1.073539913428085</v>
       </c>
       <c r="R11">
-        <v>1.029945277846946</v>
+        <v>1.095247900005935</v>
       </c>
       <c r="S11">
-        <v>1.029945277846946</v>
+        <v>1.095247900005935</v>
       </c>
       <c r="T11">
-        <v>1.010039051422763</v>
+        <v>1.037688898449505</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8880509013776856</v>
+        <v>0.4916487245064646</v>
       </c>
       <c r="D12">
-        <v>1.793736858008728</v>
+        <v>4.658484975085636</v>
       </c>
       <c r="E12">
-        <v>0.7884101693772803</v>
+        <v>0.4116498818129478</v>
       </c>
       <c r="F12">
-        <v>0.8946703838210499</v>
+        <v>0.5202164719729577</v>
       </c>
       <c r="G12">
-        <v>1.952892892237849</v>
+        <v>5.885560686786111</v>
       </c>
       <c r="H12">
-        <v>1.23186484865263</v>
+        <v>2.12013794390526</v>
       </c>
       <c r="I12">
-        <v>1.952892892237849</v>
+        <v>5.885560686786111</v>
       </c>
       <c r="J12">
-        <v>0.7884101693772803</v>
+        <v>0.4116498818129478</v>
       </c>
       <c r="K12">
-        <v>0.7884101693772803</v>
+        <v>0.4116498818129478</v>
       </c>
       <c r="L12">
-        <v>1.23186484865263</v>
+        <v>2.12013794390526</v>
       </c>
       <c r="M12">
-        <v>1.59237887044524</v>
+        <v>4.002849315345685</v>
       </c>
       <c r="N12">
-        <v>1.59237887044524</v>
+        <v>4.002849315345685</v>
       </c>
       <c r="O12">
-        <v>1.357602880756055</v>
+        <v>2.832449118399278</v>
       </c>
       <c r="P12">
-        <v>1.324389303422586</v>
+        <v>2.80578283750144</v>
       </c>
       <c r="Q12">
-        <v>1.324389303422586</v>
+        <v>2.80578283750144</v>
       </c>
       <c r="R12">
-        <v>1.19039451991126</v>
+        <v>2.207249598579317</v>
       </c>
       <c r="S12">
-        <v>1.19039451991126</v>
+        <v>2.207249598579317</v>
       </c>
       <c r="T12">
-        <v>1.258271008912537</v>
+        <v>2.347949780678229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9709910972782846</v>
+        <v>0.8602604723543916</v>
       </c>
       <c r="D13">
-        <v>1.040323805008348</v>
+        <v>1.152123157405084</v>
       </c>
       <c r="E13">
-        <v>1.042682520347292</v>
+        <v>1.13020474944666</v>
       </c>
       <c r="F13">
-        <v>1.020732247728775</v>
+        <v>1.058274316835977</v>
       </c>
       <c r="G13">
-        <v>1.011810839627176</v>
+        <v>0.7773828576724306</v>
       </c>
       <c r="H13">
-        <v>0.9435824976250978</v>
+        <v>1.081988754822035</v>
       </c>
       <c r="I13">
-        <v>1.011810839627176</v>
+        <v>0.7773828576724306</v>
       </c>
       <c r="J13">
-        <v>1.042682520347292</v>
+        <v>1.13020474944666</v>
       </c>
       <c r="K13">
-        <v>1.042682520347292</v>
+        <v>1.13020474944666</v>
       </c>
       <c r="L13">
-        <v>0.9435824976250978</v>
+        <v>1.081988754822035</v>
       </c>
       <c r="M13">
-        <v>0.9776966686261368</v>
+        <v>0.9296858062472327</v>
       </c>
       <c r="N13">
-        <v>0.9776966686261368</v>
+        <v>0.9296858062472327</v>
       </c>
       <c r="O13">
-        <v>0.9754614781768528</v>
+        <v>0.9065440282829523</v>
       </c>
       <c r="P13">
-        <v>0.9993586191998552</v>
+        <v>0.9965254539803752</v>
       </c>
       <c r="Q13">
-        <v>0.9993586191998552</v>
+        <v>0.9965254539803752</v>
       </c>
       <c r="R13">
-        <v>1.010189594486715</v>
+        <v>1.029945277846946</v>
       </c>
       <c r="S13">
-        <v>1.010189594486715</v>
+        <v>1.029945277846946</v>
       </c>
       <c r="T13">
-        <v>1.005020501269162</v>
+        <v>1.010039051422763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.04694283099999997</v>
+        <v>0.8880509013776856</v>
       </c>
       <c r="D14">
-        <v>7.800027100000005</v>
+        <v>1.793736858008728</v>
       </c>
       <c r="E14">
-        <v>-0.0001847261400000003</v>
+        <v>0.7884101693772803</v>
       </c>
       <c r="F14">
-        <v>0.1123328900000001</v>
+        <v>0.8946703838210499</v>
       </c>
       <c r="G14">
-        <v>10.135584</v>
+        <v>1.952892892237849</v>
       </c>
       <c r="H14">
-        <v>3.107733099999997</v>
+        <v>1.23186484865263</v>
       </c>
       <c r="I14">
-        <v>10.135584</v>
+        <v>1.952892892237849</v>
       </c>
       <c r="J14">
-        <v>-0.0001847261400000003</v>
+        <v>0.7884101693772803</v>
       </c>
       <c r="K14">
-        <v>-0.0001847261400000003</v>
+        <v>0.7884101693772803</v>
       </c>
       <c r="L14">
-        <v>3.107733099999997</v>
+        <v>1.23186484865263</v>
       </c>
       <c r="M14">
-        <v>6.621658549999997</v>
+        <v>1.59237887044524</v>
       </c>
       <c r="N14">
-        <v>6.621658549999997</v>
+        <v>1.59237887044524</v>
       </c>
       <c r="O14">
-        <v>4.430086643666665</v>
+        <v>1.357602880756055</v>
       </c>
       <c r="P14">
-        <v>4.414377457953331</v>
+        <v>1.324389303422586</v>
       </c>
       <c r="Q14">
-        <v>4.414377457953331</v>
+        <v>1.324389303422586</v>
       </c>
       <c r="R14">
-        <v>3.310736911929998</v>
+        <v>1.19039451991126</v>
       </c>
       <c r="S14">
-        <v>3.310736911929998</v>
+        <v>1.19039451991126</v>
       </c>
       <c r="T14">
-        <v>3.533739199143333</v>
+        <v>1.258271008912537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0025420957</v>
+        <v>0.9709910972782846</v>
       </c>
       <c r="D15">
-        <v>-0.0027921709</v>
+        <v>1.040323805008348</v>
       </c>
       <c r="E15">
-        <v>30.381976</v>
+        <v>1.042682520347292</v>
       </c>
       <c r="F15">
-        <v>0.0037430372</v>
+        <v>1.020732247728775</v>
       </c>
       <c r="G15">
-        <v>0.0030969418</v>
+        <v>1.011810839627176</v>
       </c>
       <c r="H15">
-        <v>-0.0012295708</v>
+        <v>0.9435824976250978</v>
       </c>
       <c r="I15">
-        <v>0.0030969418</v>
+        <v>1.011810839627176</v>
       </c>
       <c r="J15">
-        <v>30.381976</v>
+        <v>1.042682520347292</v>
       </c>
       <c r="K15">
-        <v>30.381976</v>
+        <v>1.042682520347292</v>
       </c>
       <c r="L15">
-        <v>-0.0012295708</v>
+        <v>0.9435824976250978</v>
       </c>
       <c r="M15">
-        <v>0.0009336855</v>
+        <v>0.9776966686261368</v>
       </c>
       <c r="N15">
-        <v>0.0009336855</v>
+        <v>0.9776966686261368</v>
       </c>
       <c r="O15">
-        <v>0.001469822233333333</v>
+        <v>0.9754614781768528</v>
       </c>
       <c r="P15">
-        <v>10.12794779033333</v>
+        <v>0.9993586191998552</v>
       </c>
       <c r="Q15">
-        <v>10.12794779033333</v>
+        <v>0.9993586191998552</v>
       </c>
       <c r="R15">
-        <v>15.19145484275</v>
+        <v>1.010189594486715</v>
       </c>
       <c r="S15">
-        <v>15.19145484275</v>
+        <v>1.010189594486715</v>
       </c>
       <c r="T15">
-        <v>5.0645560555</v>
+        <v>1.005020501269162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.00084920429</v>
+        <v>0.04694283099999997</v>
       </c>
       <c r="D16">
-        <v>9.322335600000001</v>
+        <v>7.800027100000005</v>
       </c>
       <c r="E16">
-        <v>5.0698709</v>
+        <v>-0.0001847261400000003</v>
       </c>
       <c r="F16">
-        <v>0.19881521</v>
+        <v>0.1123328900000001</v>
       </c>
       <c r="G16">
-        <v>0.00058360601</v>
+        <v>10.135584</v>
       </c>
       <c r="H16">
-        <v>2.6042979</v>
+        <v>3.107733099999997</v>
       </c>
       <c r="I16">
-        <v>0.00058360601</v>
+        <v>10.135584</v>
       </c>
       <c r="J16">
-        <v>5.0698709</v>
+        <v>-0.0001847261400000003</v>
       </c>
       <c r="K16">
-        <v>5.0698709</v>
+        <v>-0.0001847261400000003</v>
       </c>
       <c r="L16">
-        <v>2.6042979</v>
+        <v>3.107733099999997</v>
       </c>
       <c r="M16">
-        <v>1.302440753005</v>
+        <v>6.621658549999997</v>
       </c>
       <c r="N16">
-        <v>1.302440753005</v>
+        <v>6.621658549999997</v>
       </c>
       <c r="O16">
-        <v>0.86801076724</v>
+        <v>4.430086643666665</v>
       </c>
       <c r="P16">
-        <v>2.558250802003334</v>
+        <v>4.414377457953331</v>
       </c>
       <c r="Q16">
-        <v>2.558250802003334</v>
+        <v>4.414377457953331</v>
       </c>
       <c r="R16">
-        <v>3.1861558265025</v>
+        <v>3.310736911929998</v>
       </c>
       <c r="S16">
-        <v>3.1861558265025</v>
+        <v>3.310736911929998</v>
       </c>
       <c r="T16">
-        <v>2.865842335286667</v>
+        <v>3.533739199143333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.022414911</v>
+        <v>0.0025420957</v>
       </c>
       <c r="D17">
-        <v>3.8787132</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="E17">
-        <v>2.5555451</v>
+        <v>30.381976</v>
       </c>
       <c r="F17">
-        <v>0.14763795</v>
+        <v>0.0037430372</v>
       </c>
       <c r="G17">
-        <v>2.3556022</v>
+        <v>0.0030969418</v>
       </c>
       <c r="H17">
-        <v>1.4560976</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="I17">
-        <v>2.3556022</v>
+        <v>0.0030969418</v>
       </c>
       <c r="J17">
-        <v>2.5555451</v>
+        <v>30.381976</v>
       </c>
       <c r="K17">
-        <v>2.5555451</v>
+        <v>30.381976</v>
       </c>
       <c r="L17">
-        <v>1.4560976</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M17">
-        <v>1.9058499</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N17">
-        <v>1.9058499</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O17">
-        <v>1.278038237</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P17">
-        <v>2.122414966666667</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q17">
-        <v>2.122414966666667</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R17">
-        <v>2.2306975</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S17">
-        <v>2.2306975</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T17">
-        <v>1.736001826833333</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.117762278646576</v>
+        <v>-0.00084920429</v>
       </c>
       <c r="D18">
-        <v>0.5442945388769862</v>
+        <v>9.322335600000001</v>
       </c>
       <c r="E18">
-        <v>3.116592506772493</v>
+        <v>5.0698709</v>
       </c>
       <c r="F18">
-        <v>1.004621909967123</v>
+        <v>0.19881521</v>
       </c>
       <c r="G18">
-        <v>1.222020527786027</v>
+        <v>0.00058360601</v>
       </c>
       <c r="H18">
-        <v>0.941823580430685</v>
+        <v>2.6042979</v>
       </c>
       <c r="I18">
-        <v>1.222020527786027</v>
+        <v>0.00058360601</v>
       </c>
       <c r="J18">
-        <v>3.116592506772493</v>
+        <v>5.0698709</v>
       </c>
       <c r="K18">
-        <v>3.116592506772493</v>
+        <v>5.0698709</v>
       </c>
       <c r="L18">
-        <v>0.941823580430685</v>
+        <v>2.6042979</v>
       </c>
       <c r="M18">
-        <v>1.081922054108356</v>
+        <v>1.302440753005</v>
       </c>
       <c r="N18">
-        <v>1.081922054108356</v>
+        <v>1.302440753005</v>
       </c>
       <c r="O18">
-        <v>1.093868795621096</v>
+        <v>0.86801076724</v>
       </c>
       <c r="P18">
-        <v>1.760145538329735</v>
+        <v>2.558250802003334</v>
       </c>
       <c r="Q18">
-        <v>1.760145538329735</v>
+        <v>2.558250802003334</v>
       </c>
       <c r="R18">
-        <v>2.099257280440424</v>
+        <v>3.1861558265025</v>
       </c>
       <c r="S18">
-        <v>2.099257280440424</v>
+        <v>3.1861558265025</v>
       </c>
       <c r="T18">
-        <v>1.324519223746649</v>
+        <v>2.865842335286667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.03324863567105264</v>
+        <v>0.022414911</v>
       </c>
       <c r="D19">
-        <v>5.560112863157896</v>
+        <v>3.8787132</v>
       </c>
       <c r="E19">
-        <v>1.837908985187369</v>
+        <v>2.5555451</v>
       </c>
       <c r="F19">
-        <v>0.1351234507894737</v>
+        <v>0.14763795</v>
       </c>
       <c r="G19">
-        <v>3.673680562123157</v>
+        <v>2.3556022</v>
       </c>
       <c r="H19">
-        <v>1.855586412105263</v>
+        <v>1.4560976</v>
       </c>
       <c r="I19">
-        <v>3.673680562123157</v>
+        <v>2.3556022</v>
       </c>
       <c r="J19">
-        <v>1.837908985187369</v>
+        <v>2.5555451</v>
       </c>
       <c r="K19">
-        <v>1.837908985187369</v>
+        <v>2.5555451</v>
       </c>
       <c r="L19">
-        <v>1.855586412105263</v>
+        <v>1.4560976</v>
       </c>
       <c r="M19">
-        <v>2.76463348711421</v>
+        <v>1.9058499</v>
       </c>
       <c r="N19">
-        <v>2.76463348711421</v>
+        <v>1.9058499</v>
       </c>
       <c r="O19">
-        <v>1.854171869966491</v>
+        <v>1.278038237</v>
       </c>
       <c r="P19">
-        <v>2.455725319805263</v>
+        <v>2.122414966666667</v>
       </c>
       <c r="Q19">
-        <v>2.455725319805263</v>
+        <v>2.122414966666667</v>
       </c>
       <c r="R19">
-        <v>2.301271236150789</v>
+        <v>2.2306975</v>
       </c>
       <c r="S19">
-        <v>2.301271236150789</v>
+        <v>2.2306975</v>
       </c>
       <c r="T19">
-        <v>2.182610151505702</v>
+        <v>1.736001826833333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.3158065737710526</v>
+        <v>1.117762278646576</v>
       </c>
       <c r="D20">
-        <v>1.585693981274684</v>
+        <v>0.5442945388769862</v>
       </c>
       <c r="E20">
-        <v>3.289981587202105</v>
+        <v>3.116592506772493</v>
       </c>
       <c r="F20">
-        <v>1.201020608905263</v>
+        <v>1.004621909967123</v>
       </c>
       <c r="G20">
-        <v>0.8353072804726313</v>
+        <v>1.222020527786027</v>
       </c>
       <c r="H20">
-        <v>1.217564790515526</v>
+        <v>0.941823580430685</v>
       </c>
       <c r="I20">
-        <v>0.8353072804726313</v>
+        <v>1.222020527786027</v>
       </c>
       <c r="J20">
-        <v>3.289981587202105</v>
+        <v>3.116592506772493</v>
       </c>
       <c r="K20">
-        <v>3.289981587202105</v>
+        <v>3.116592506772493</v>
       </c>
       <c r="L20">
-        <v>1.217564790515526</v>
+        <v>0.941823580430685</v>
       </c>
       <c r="M20">
-        <v>1.026436035494079</v>
+        <v>1.081922054108356</v>
       </c>
       <c r="N20">
-        <v>1.026436035494079</v>
+        <v>1.081922054108356</v>
       </c>
       <c r="O20">
-        <v>0.7895595482530701</v>
+        <v>1.093868795621096</v>
       </c>
       <c r="P20">
-        <v>1.780951219396754</v>
+        <v>1.760145538329735</v>
       </c>
       <c r="Q20">
-        <v>1.780951219396754</v>
+        <v>1.760145538329735</v>
       </c>
       <c r="R20">
-        <v>2.158208811348092</v>
+        <v>2.099257280440424</v>
       </c>
       <c r="S20">
-        <v>2.158208811348092</v>
+        <v>2.099257280440424</v>
       </c>
       <c r="T20">
-        <v>1.407562470356877</v>
+        <v>1.324519223746649</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.40161374224752</v>
+        <v>0.03324863567105264</v>
       </c>
       <c r="D21">
-        <v>1.047283324980464</v>
+        <v>5.560112863157896</v>
       </c>
       <c r="E21">
-        <v>0.4575240688298542</v>
+        <v>1.837908985187369</v>
       </c>
       <c r="F21">
-        <v>1.002912250887597</v>
+        <v>0.1351234507894737</v>
       </c>
       <c r="G21">
-        <v>1.67335477920264</v>
+        <v>3.673680562123157</v>
       </c>
       <c r="H21">
-        <v>0.7298618612238877</v>
+        <v>1.855586412105263</v>
       </c>
       <c r="I21">
-        <v>1.67335477920264</v>
+        <v>3.673680562123157</v>
       </c>
       <c r="J21">
-        <v>0.4575240688298542</v>
+        <v>1.837908985187369</v>
       </c>
       <c r="K21">
-        <v>0.4575240688298542</v>
+        <v>1.837908985187369</v>
       </c>
       <c r="L21">
-        <v>0.7298618612238877</v>
+        <v>1.855586412105263</v>
       </c>
       <c r="M21">
-        <v>1.201608320213264</v>
+        <v>2.76463348711421</v>
       </c>
       <c r="N21">
-        <v>1.201608320213264</v>
+        <v>2.76463348711421</v>
       </c>
       <c r="O21">
-        <v>1.268276794224683</v>
+        <v>1.854171869966491</v>
       </c>
       <c r="P21">
-        <v>0.9535802364187941</v>
+        <v>2.455725319805263</v>
       </c>
       <c r="Q21">
-        <v>0.9535802364187941</v>
+        <v>2.455725319805263</v>
       </c>
       <c r="R21">
-        <v>0.8295661945215591</v>
+        <v>2.301271236150789</v>
       </c>
       <c r="S21">
-        <v>0.8295661945215591</v>
+        <v>2.301271236150789</v>
       </c>
       <c r="T21">
-        <v>1.052091671228661</v>
+        <v>2.182610151505702</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.152505170403554</v>
+        <v>0.3158065737710526</v>
       </c>
       <c r="D22">
-        <v>0.583109778582349</v>
+        <v>1.585693981274684</v>
       </c>
       <c r="E22">
-        <v>0.7839152245950087</v>
+        <v>3.289981587202105</v>
       </c>
       <c r="F22">
-        <v>0.9405966316423949</v>
+        <v>1.201020608905263</v>
       </c>
       <c r="G22">
-        <v>0.3557094499442442</v>
+        <v>0.8353072804726313</v>
       </c>
       <c r="H22">
-        <v>0.8992704960297836</v>
+        <v>1.217564790515526</v>
       </c>
       <c r="I22">
-        <v>0.3557094499442442</v>
+        <v>0.8353072804726313</v>
       </c>
       <c r="J22">
-        <v>0.7839152245950087</v>
+        <v>3.289981587202105</v>
       </c>
       <c r="K22">
-        <v>0.7839152245950087</v>
+        <v>3.289981587202105</v>
       </c>
       <c r="L22">
-        <v>0.8992704960297836</v>
+        <v>1.217564790515526</v>
       </c>
       <c r="M22">
-        <v>0.6274899729870139</v>
+        <v>1.026436035494079</v>
       </c>
       <c r="N22">
-        <v>0.6274899729870139</v>
+        <v>1.026436035494079</v>
       </c>
       <c r="O22">
-        <v>0.8024950387925273</v>
+        <v>0.7895595482530701</v>
       </c>
       <c r="P22">
-        <v>0.6796317235230122</v>
+        <v>1.780951219396754</v>
       </c>
       <c r="Q22">
-        <v>0.6796317235230122</v>
+        <v>1.780951219396754</v>
       </c>
       <c r="R22">
-        <v>0.7057025987910113</v>
+        <v>2.158208811348092</v>
       </c>
       <c r="S22">
-        <v>0.7057025987910113</v>
+        <v>2.158208811348092</v>
       </c>
       <c r="T22">
-        <v>0.7858511251995557</v>
+        <v>1.407562470356877</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.294687972337101</v>
+        <v>1.40161374224752</v>
       </c>
       <c r="D23">
-        <v>0.01878657451929507</v>
+        <v>1.047283324980464</v>
       </c>
       <c r="E23">
-        <v>1.637772696181906</v>
+        <v>0.4575240688298542</v>
       </c>
       <c r="F23">
-        <v>1.224471727757228</v>
+        <v>1.002912250887597</v>
       </c>
       <c r="G23">
-        <v>0.07408384327928993</v>
+        <v>1.67335477920264</v>
       </c>
       <c r="H23">
-        <v>1.031808577725423</v>
+        <v>0.7298618612238877</v>
       </c>
       <c r="I23">
-        <v>0.07408384327928993</v>
+        <v>1.67335477920264</v>
       </c>
       <c r="J23">
-        <v>1.637772696181906</v>
+        <v>0.4575240688298542</v>
       </c>
       <c r="K23">
-        <v>1.637772696181906</v>
+        <v>0.4575240688298542</v>
       </c>
       <c r="L23">
-        <v>1.031808577725423</v>
+        <v>0.7298618612238877</v>
       </c>
       <c r="M23">
-        <v>0.5529462105023566</v>
+        <v>1.201608320213264</v>
       </c>
       <c r="N23">
-        <v>0.5529462105023566</v>
+        <v>1.201608320213264</v>
       </c>
       <c r="O23">
-        <v>0.8001934644472715</v>
+        <v>1.268276794224683</v>
       </c>
       <c r="P23">
-        <v>0.9145550390622065</v>
+        <v>0.9535802364187941</v>
       </c>
       <c r="Q23">
-        <v>0.9145550390622065</v>
+        <v>0.9535802364187941</v>
       </c>
       <c r="R23">
-        <v>1.095359453342132</v>
+        <v>0.8295661945215591</v>
       </c>
       <c r="S23">
-        <v>1.095359453342132</v>
+        <v>0.8295661945215591</v>
       </c>
       <c r="T23">
-        <v>0.8802685653000406</v>
+        <v>1.052091671228661</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7458314991221103</v>
+        <v>1.152505170403554</v>
       </c>
       <c r="D24">
-        <v>1.439684395819204</v>
+        <v>0.583109778582349</v>
       </c>
       <c r="E24">
-        <v>0.9591417196820489</v>
+        <v>0.7839152245950087</v>
       </c>
       <c r="F24">
-        <v>0.9024888776461023</v>
+        <v>0.9405966316423949</v>
       </c>
       <c r="G24">
-        <v>2.033277462835631</v>
+        <v>0.3557094499442442</v>
       </c>
       <c r="H24">
-        <v>0.9142597314500865</v>
+        <v>0.8992704960297836</v>
       </c>
       <c r="I24">
-        <v>2.033277462835631</v>
+        <v>0.3557094499442442</v>
       </c>
       <c r="J24">
-        <v>0.9591417196820489</v>
+        <v>0.7839152245950087</v>
       </c>
       <c r="K24">
-        <v>0.9591417196820489</v>
+        <v>0.7839152245950087</v>
       </c>
       <c r="L24">
-        <v>0.9142597314500865</v>
+        <v>0.8992704960297836</v>
       </c>
       <c r="M24">
-        <v>1.473768597142859</v>
+        <v>0.6274899729870139</v>
       </c>
       <c r="N24">
-        <v>1.473768597142859</v>
+        <v>0.6274899729870139</v>
       </c>
       <c r="O24">
-        <v>1.231122897802609</v>
+        <v>0.8024950387925273</v>
       </c>
       <c r="P24">
-        <v>1.302226304655922</v>
+        <v>0.6796317235230122</v>
       </c>
       <c r="Q24">
-        <v>1.302226304655922</v>
+        <v>0.6796317235230122</v>
       </c>
       <c r="R24">
-        <v>1.216455158412454</v>
+        <v>0.7057025987910113</v>
       </c>
       <c r="S24">
-        <v>1.216455158412454</v>
+        <v>0.7057025987910113</v>
       </c>
       <c r="T24">
-        <v>1.165780614425864</v>
+        <v>0.7858511251995557</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.5092091986508437</v>
+        <v>1.294687972337101</v>
       </c>
       <c r="D25">
-        <v>0.3011995829182816</v>
+        <v>0.01878657451929507</v>
       </c>
       <c r="E25">
-        <v>2.187601217675893</v>
+        <v>1.637772696181906</v>
       </c>
       <c r="F25">
-        <v>1.312678487094464</v>
+        <v>1.224471727757228</v>
       </c>
       <c r="G25">
-        <v>0.002024000857872225</v>
+        <v>0.07408384327928993</v>
       </c>
       <c r="H25">
-        <v>0.5081495437570238</v>
+        <v>1.031808577725423</v>
       </c>
       <c r="I25">
-        <v>0.002024000857872225</v>
+        <v>0.07408384327928993</v>
       </c>
       <c r="J25">
-        <v>2.187601217675893</v>
+        <v>1.637772696181906</v>
       </c>
       <c r="K25">
-        <v>2.187601217675893</v>
+        <v>1.637772696181906</v>
       </c>
       <c r="L25">
-        <v>0.5081495437570238</v>
+        <v>1.031808577725423</v>
       </c>
       <c r="M25">
-        <v>0.255086772307448</v>
+        <v>0.5529462105023566</v>
       </c>
       <c r="N25">
-        <v>0.255086772307448</v>
+        <v>0.5529462105023566</v>
       </c>
       <c r="O25">
-        <v>0.3397942477552466</v>
+        <v>0.8001934644472715</v>
       </c>
       <c r="P25">
-        <v>0.8992582540969298</v>
+        <v>0.9145550390622065</v>
       </c>
       <c r="Q25">
-        <v>0.8992582540969297</v>
+        <v>0.9145550390622065</v>
       </c>
       <c r="R25">
-        <v>1.22134399499167</v>
+        <v>1.095359453342132</v>
       </c>
       <c r="S25">
-        <v>1.22134399499167</v>
+        <v>1.095359453342132</v>
       </c>
       <c r="T25">
-        <v>0.8034770051590631</v>
+        <v>0.8802685653000406</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.128767366034327</v>
+        <v>0.7458314991221103</v>
       </c>
       <c r="D26">
-        <v>1.417972913815977</v>
+        <v>1.439684395819204</v>
       </c>
       <c r="E26">
-        <v>0.5177386207423731</v>
+        <v>0.9591417196820489</v>
       </c>
       <c r="F26">
-        <v>0.9972871427083966</v>
+        <v>0.9024888776461023</v>
       </c>
       <c r="G26">
-        <v>0.6367984802745411</v>
+        <v>2.033277462835631</v>
       </c>
       <c r="H26">
-        <v>1.431893376983158</v>
+        <v>0.9142597314500865</v>
       </c>
       <c r="I26">
-        <v>0.6367984802745411</v>
+        <v>2.033277462835631</v>
       </c>
       <c r="J26">
-        <v>0.5177386207423731</v>
+        <v>0.9591417196820489</v>
       </c>
       <c r="K26">
-        <v>0.5177386207423731</v>
+        <v>0.9591417196820489</v>
       </c>
       <c r="L26">
-        <v>1.431893376983158</v>
+        <v>0.9142597314500865</v>
       </c>
       <c r="M26">
-        <v>1.034345928628849</v>
+        <v>1.473768597142859</v>
       </c>
       <c r="N26">
-        <v>1.034345928628849</v>
+        <v>1.473768597142859</v>
       </c>
       <c r="O26">
-        <v>1.065819741097342</v>
+        <v>1.231122897802609</v>
       </c>
       <c r="P26">
-        <v>0.8621434926666907</v>
+        <v>1.302226304655922</v>
       </c>
       <c r="Q26">
-        <v>0.8621434926666907</v>
+        <v>1.302226304655922</v>
       </c>
       <c r="R26">
-        <v>0.7760422746856113</v>
+        <v>1.216455158412454</v>
       </c>
       <c r="S26">
-        <v>0.7760422746856113</v>
+        <v>1.216455158412454</v>
       </c>
       <c r="T26">
-        <v>1.021742983426462</v>
+        <v>1.165780614425864</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.047391479426969</v>
+        <v>0.5092091986508437</v>
       </c>
       <c r="D27">
-        <v>1.896597621393882</v>
+        <v>0.3011995829182816</v>
       </c>
       <c r="E27">
-        <v>1.388929878621983</v>
+        <v>2.187601217675893</v>
       </c>
       <c r="F27">
-        <v>0.9090687929804319</v>
+        <v>1.312678487094464</v>
       </c>
       <c r="G27">
-        <v>2.530150398996077</v>
+        <v>0.002024000857872225</v>
       </c>
       <c r="H27">
-        <v>1.003987613274171</v>
+        <v>0.5081495437570238</v>
       </c>
       <c r="I27">
-        <v>2.530150398996077</v>
+        <v>0.002024000857872225</v>
       </c>
       <c r="J27">
-        <v>1.388929878621983</v>
+        <v>2.187601217675893</v>
       </c>
       <c r="K27">
-        <v>1.388929878621983</v>
+        <v>2.187601217675893</v>
       </c>
       <c r="L27">
-        <v>1.003987613274171</v>
+        <v>0.5081495437570238</v>
       </c>
       <c r="M27">
-        <v>1.767069006135124</v>
+        <v>0.255086772307448</v>
       </c>
       <c r="N27">
-        <v>1.767069006135124</v>
+        <v>0.255086772307448</v>
       </c>
       <c r="O27">
-        <v>1.527176497232406</v>
+        <v>0.3397942477552466</v>
       </c>
       <c r="P27">
-        <v>1.641022630297411</v>
+        <v>0.8992582540969298</v>
       </c>
       <c r="Q27">
-        <v>1.641022630297411</v>
+        <v>0.8992582540969297</v>
       </c>
       <c r="R27">
-        <v>1.577999442378554</v>
+        <v>1.22134399499167</v>
       </c>
       <c r="S27">
-        <v>1.577999442378554</v>
+        <v>1.22134399499167</v>
       </c>
       <c r="T27">
-        <v>1.462687630782252</v>
+        <v>0.8034770051590631</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.8793751700996024</v>
+        <v>1.128767366034327</v>
       </c>
       <c r="D28">
-        <v>1.067033897560462</v>
+        <v>1.417972913815977</v>
       </c>
       <c r="E28">
-        <v>1.37447820017507</v>
+        <v>0.5177386207423731</v>
       </c>
       <c r="F28">
-        <v>1.15678531690328</v>
+        <v>0.9972871427083966</v>
       </c>
       <c r="G28">
-        <v>1.738011385969793</v>
+        <v>0.6367984802745411</v>
       </c>
       <c r="H28">
-        <v>1.150025021868387</v>
+        <v>1.431893376983158</v>
       </c>
       <c r="I28">
-        <v>1.738011385969793</v>
+        <v>0.6367984802745411</v>
       </c>
       <c r="J28">
-        <v>1.37447820017507</v>
+        <v>0.5177386207423731</v>
       </c>
       <c r="K28">
-        <v>1.37447820017507</v>
+        <v>0.5177386207423731</v>
       </c>
       <c r="L28">
-        <v>1.150025021868387</v>
+        <v>1.431893376983158</v>
       </c>
       <c r="M28">
-        <v>1.44401820391909</v>
+        <v>1.034345928628849</v>
       </c>
       <c r="N28">
-        <v>1.44401820391909</v>
+        <v>1.034345928628849</v>
       </c>
       <c r="O28">
-        <v>1.255803859312594</v>
+        <v>1.065819741097342</v>
       </c>
       <c r="P28">
-        <v>1.420838202671083</v>
+        <v>0.8621434926666907</v>
       </c>
       <c r="Q28">
-        <v>1.420838202671083</v>
+        <v>0.8621434926666907</v>
       </c>
       <c r="R28">
-        <v>1.40924820204708</v>
+        <v>0.7760422746856113</v>
       </c>
       <c r="S28">
-        <v>1.40924820204708</v>
+        <v>0.7760422746856113</v>
       </c>
       <c r="T28">
-        <v>1.227618165429432</v>
+        <v>1.021742983426462</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.047391479426969</v>
+      </c>
+      <c r="D29">
+        <v>1.896597621393882</v>
+      </c>
+      <c r="E29">
+        <v>1.388929878621983</v>
+      </c>
+      <c r="F29">
+        <v>0.9090687929804319</v>
+      </c>
+      <c r="G29">
+        <v>2.530150398996077</v>
+      </c>
+      <c r="H29">
+        <v>1.003987613274171</v>
+      </c>
+      <c r="I29">
+        <v>2.530150398996077</v>
+      </c>
+      <c r="J29">
+        <v>1.388929878621983</v>
+      </c>
+      <c r="K29">
+        <v>1.388929878621983</v>
+      </c>
+      <c r="L29">
+        <v>1.003987613274171</v>
+      </c>
+      <c r="M29">
+        <v>1.767069006135124</v>
+      </c>
+      <c r="N29">
+        <v>1.767069006135124</v>
+      </c>
+      <c r="O29">
+        <v>1.527176497232406</v>
+      </c>
+      <c r="P29">
+        <v>1.641022630297411</v>
+      </c>
+      <c r="Q29">
+        <v>1.641022630297411</v>
+      </c>
+      <c r="R29">
+        <v>1.577999442378554</v>
+      </c>
+      <c r="S29">
+        <v>1.577999442378554</v>
+      </c>
+      <c r="T29">
+        <v>1.462687630782252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8793751700996024</v>
+      </c>
+      <c r="D30">
+        <v>1.067033897560462</v>
+      </c>
+      <c r="E30">
+        <v>1.37447820017507</v>
+      </c>
+      <c r="F30">
+        <v>1.15678531690328</v>
+      </c>
+      <c r="G30">
+        <v>1.738011385969793</v>
+      </c>
+      <c r="H30">
+        <v>1.150025021868387</v>
+      </c>
+      <c r="I30">
+        <v>1.738011385969793</v>
+      </c>
+      <c r="J30">
+        <v>1.37447820017507</v>
+      </c>
+      <c r="K30">
+        <v>1.37447820017507</v>
+      </c>
+      <c r="L30">
+        <v>1.150025021868387</v>
+      </c>
+      <c r="M30">
+        <v>1.44401820391909</v>
+      </c>
+      <c r="N30">
+        <v>1.44401820391909</v>
+      </c>
+      <c r="O30">
+        <v>1.255803859312594</v>
+      </c>
+      <c r="P30">
+        <v>1.420838202671083</v>
+      </c>
+      <c r="Q30">
+        <v>1.420838202671083</v>
+      </c>
+      <c r="R30">
+        <v>1.40924820204708</v>
+      </c>
+      <c r="S30">
+        <v>1.40924820204708</v>
+      </c>
+      <c r="T30">
+        <v>1.227618165429432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.050949694634771</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.832563452799362</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>2.480655347009983</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.7300691062471077</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>2.573549787096304</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.082863355622839</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>2.573549787096304</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>2.480655347009983</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>2.480655347009983</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.082863355622839</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.828206571359571</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.828206571359571</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.569120945784638</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>2.045689496576375</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>2.045689496576375</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>2.154430959184777</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>2.154430959184777</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.625108457235061</v>
       </c>
     </row>
